--- a/input_data/USA/Filter_1963_ExtAgg.xlsx
+++ b/input_data/USA/Filter_1963_ExtAgg.xlsx
@@ -1,15 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20383"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20384"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18911CEA-B2C6-4BA1-BB94-0BF1E23FE263}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A46039C1-474C-468D-8774-A425C726A4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12228" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="2" r:id="rId1"/>
-    <sheet name="filter" sheetId="1" r:id="rId2"/>
+    <sheet name="mass_&amp;_aggreg" sheetId="1" r:id="rId2"/>
+    <sheet name="exio_usa" sheetId="3" r:id="rId3"/>
+    <sheet name="yield" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -246,8 +248,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="B33" authorId="0" shapeId="0" xr:uid="{7DDBA309-FDC1-48F7-AFEF-0E6678D15ADC}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+ zero cells are filled in code and assumed with 100% yield; for USA, we only use yield values for basic materials going to interemdiate/final products from Exiobase yield and assume final product - final product interactions with no losses</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="618" uniqueCount="470">
   <si>
     <t>Pulp mills</t>
   </si>
@@ -330,9 +366,6 @@
     <t>Other construction</t>
   </si>
   <si>
-    <t>The tab 'filter' contains the overarching filter matrix which provides settings for three operations:</t>
-  </si>
-  <si>
     <t>Raw_materials</t>
   </si>
   <si>
@@ -1422,9 +1455,6 @@
     <t>Explanations columns C-H:</t>
   </si>
   <si>
-    <t>depending on the filter matrix scenario these sector rows + columns are set zero and thus neither output nor receive anything</t>
-  </si>
-  <si>
     <t>these sectors are the extension sectors; in WIO-MFA and Ghosh-IO AMC these 'material sectors' (column D) do not receive input from 'products sectors' (column F-H)</t>
   </si>
   <si>
@@ -1474,6 +1504,195 @@
   </si>
   <si>
     <t>Paving mixtures &amp; blocks+Asphalt felts &amp; coatings</t>
+  </si>
+  <si>
+    <t>The tab 'mass_&amp;_aggreg filter' contains the overarching filter matrix which provides settings for three operations:</t>
+  </si>
+  <si>
+    <t>depending on the mass filter scenario these sector rows + columns are set zero and thus neither output nor receive anything</t>
+  </si>
+  <si>
+    <t>The tab 'yield' contains the yield matrix for WIO-MFA (all empty cells are set to 100% yield in code)</t>
+  </si>
+  <si>
+    <t>Match Exiobase transaction yields to USA table sectors</t>
+  </si>
+  <si>
+    <t>EXIOBASE yield table (cells highlighted in blue are used)</t>
+  </si>
+  <si>
+    <t>p17</t>
+  </si>
+  <si>
+    <t>p18</t>
+  </si>
+  <si>
+    <t>p20</t>
+  </si>
+  <si>
+    <t>p21.1</t>
+  </si>
+  <si>
+    <t>p28</t>
+  </si>
+  <si>
+    <t>p29</t>
+  </si>
+  <si>
+    <t>p30</t>
+  </si>
+  <si>
+    <t>p31</t>
+  </si>
+  <si>
+    <t>p32</t>
+  </si>
+  <si>
+    <t>p33</t>
+  </si>
+  <si>
+    <t>p34</t>
+  </si>
+  <si>
+    <t>p35</t>
+  </si>
+  <si>
+    <t>p36</t>
+  </si>
+  <si>
+    <t>p45</t>
+  </si>
+  <si>
+    <t>Textiles (17)</t>
+  </si>
+  <si>
+    <t>Wearing apparel; furs (18)</t>
+  </si>
+  <si>
+    <t>Wood and products of wood and cork (except furniture); articles of straw and plaiting materials (20)</t>
+  </si>
+  <si>
+    <t>Pulp</t>
+  </si>
+  <si>
+    <t>Fabricated metal products, except machinery and equipment (28)</t>
+  </si>
+  <si>
+    <t>Machinery and equipment n.e.c. (29)</t>
+  </si>
+  <si>
+    <t>Office machinery and computers (30)</t>
+  </si>
+  <si>
+    <t>Electrical machinery and apparatus n.e.c. (31)</t>
+  </si>
+  <si>
+    <t>Radio, television and communication equipment and apparatus (32)</t>
+  </si>
+  <si>
+    <t>Medical, precision and optical instruments, watches and clocks (33)</t>
+  </si>
+  <si>
+    <t>Motor vehicles, trailers and semi-trailers (34)</t>
+  </si>
+  <si>
+    <t>Other transport equipment (35)</t>
+  </si>
+  <si>
+    <t>Furniture; other manufactured goods n.e.c. (36)</t>
+  </si>
+  <si>
+    <t>Construction work (45)</t>
+  </si>
+  <si>
+    <t>p24.a</t>
+  </si>
+  <si>
+    <t>Plastics, basic</t>
+  </si>
+  <si>
+    <t>p25</t>
+  </si>
+  <si>
+    <t>Rubber and plastic products (25)</t>
+  </si>
+  <si>
+    <t>p26.a</t>
+  </si>
+  <si>
+    <t>Glass and glass products</t>
+  </si>
+  <si>
+    <t>p26.b</t>
+  </si>
+  <si>
+    <t>Ceramic goods</t>
+  </si>
+  <si>
+    <t>p27.a</t>
+  </si>
+  <si>
+    <t>Basic iron and steel and of ferro-alloys and first products thereof</t>
+  </si>
+  <si>
+    <t>p27.41</t>
+  </si>
+  <si>
+    <t>Precious metals</t>
+  </si>
+  <si>
+    <t>p27.42</t>
+  </si>
+  <si>
+    <t>Aluminium and aluminium products</t>
+  </si>
+  <si>
+    <t>p27.43</t>
+  </si>
+  <si>
+    <t>Lead, zinc and tin and products thereof</t>
+  </si>
+  <si>
+    <t>p27.44</t>
+  </si>
+  <si>
+    <t>Copper products</t>
+  </si>
+  <si>
+    <t>p27.45</t>
+  </si>
+  <si>
+    <t>Other non-ferrous metal products</t>
+  </si>
+  <si>
+    <t>p27.5</t>
+  </si>
+  <si>
+    <t>Foundry work services</t>
+  </si>
+  <si>
+    <t>USA yield table</t>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>Furniture &amp; other manuf. goods</t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>Glass</t>
+  </si>
+  <si>
+    <t>Metals</t>
+  </si>
+  <si>
+    <t>Plastics</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1704,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1539,8 +1758,24 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1589,8 +1824,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1693,12 +1940,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1747,12 +2074,52 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -2041,7 +2408,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4A54268-861F-4043-98F0-4D98CA0CE053}">
-  <dimension ref="B2:N16"/>
+  <dimension ref="B2:N17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -2051,35 +2418,35 @@
   <sheetData>
     <row r="2" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.3">
@@ -2087,7 +2454,7 @@
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.3">
@@ -2095,7 +2462,7 @@
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.3">
@@ -2103,7 +2470,7 @@
         <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.3">
@@ -2111,7 +2478,7 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="15" spans="2:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
@@ -2124,6 +2491,11 @@
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>409</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -2134,11 +2506,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB365"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C322" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C153" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3:B365"/>
+      <selection pane="bottomRight" activeCell="A92" activeCellId="1" sqref="A129:B129 A92:B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2154,36 +2526,36 @@
       <c r="B1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="28" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
+      <c r="I1" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="29"/>
+      <c r="T1" s="29"/>
+      <c r="U1" s="29"/>
+      <c r="V1" s="29"/>
+      <c r="W1" s="29"/>
+      <c r="X1" s="29"/>
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:28" ht="128.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>2</v>
@@ -2195,7 +2567,7 @@
         <v>14</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>13</v>
@@ -2207,10 +2579,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M2" s="5" t="s">
         <v>26</v>
@@ -2255,10 +2627,10 @@
         <v>8</v>
       </c>
       <c r="AA2" s="23" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="AB2" s="23" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.3">
@@ -2266,7 +2638,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3" s="14">
         <v>1</v>
@@ -2354,7 +2726,7 @@
         <v>102</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -2442,7 +2814,7 @@
         <v>103</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -2530,7 +2902,7 @@
         <v>201</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -2618,7 +2990,7 @@
         <v>202</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1">
         <v>1</v>
@@ -2633,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -2706,7 +3078,7 @@
         <v>203</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -2721,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -2794,7 +3166,7 @@
         <v>204</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C9" s="1">
         <v>1</v>
@@ -2882,7 +3254,7 @@
         <v>205</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C10" s="1">
         <v>1</v>
@@ -2970,7 +3342,7 @@
         <v>206</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -2985,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H11" s="2">
         <v>0</v>
@@ -3058,7 +3430,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C12" s="1">
         <v>1</v>
@@ -3146,7 +3518,7 @@
         <v>300</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C13" s="1">
         <v>1</v>
@@ -3234,7 +3606,7 @@
         <v>400</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -3249,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H14" s="2">
         <v>0</v>
@@ -3322,7 +3694,7 @@
         <v>500</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C15" s="1">
         <v>1</v>
@@ -3410,7 +3782,7 @@
         <v>601</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1">
         <v>1</v>
@@ -3498,7 +3870,7 @@
         <v>602</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -3586,7 +3958,7 @@
         <v>700</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -3674,7 +4046,7 @@
         <v>800</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C19" s="1">
         <v>1</v>
@@ -3689,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H19" s="2">
         <v>0</v>
@@ -3762,7 +4134,7 @@
         <v>900</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -3777,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H20" s="2">
         <v>0</v>
@@ -3850,7 +4222,7 @@
         <v>1000</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C21" s="1">
         <v>1</v>
@@ -3938,7 +4310,7 @@
         <v>1101</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C22" s="1">
         <v>0</v>
@@ -4026,7 +4398,7 @@
         <v>1102</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C23" s="1">
         <v>0</v>
@@ -4114,7 +4486,7 @@
         <v>1103</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C24" s="1">
         <v>0</v>
@@ -4202,7 +4574,7 @@
         <v>1104</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C25" s="1">
         <v>0</v>
@@ -4290,7 +4662,7 @@
         <v>1105</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C26" s="1">
         <v>0</v>
@@ -4378,7 +4750,7 @@
         <v>1201</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C27" s="1">
         <v>0</v>
@@ -4466,7 +4838,7 @@
         <v>1202</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C28" s="1">
         <v>0</v>
@@ -4554,7 +4926,7 @@
         <v>1301</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C29" s="1">
         <v>0</v>
@@ -4642,7 +5014,7 @@
         <v>1302</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C30" s="1">
         <v>0</v>
@@ -4730,7 +5102,7 @@
         <v>1303</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C31" s="1">
         <v>0</v>
@@ -4818,7 +5190,7 @@
         <v>1304</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C32" s="1">
         <v>0</v>
@@ -4906,7 +5278,7 @@
         <v>1305</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C33" s="1">
         <v>0</v>
@@ -4994,7 +5366,7 @@
         <v>1306</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C34" s="1">
         <v>0</v>
@@ -5082,7 +5454,7 @@
         <v>1307</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C35" s="1">
         <v>0</v>
@@ -5170,7 +5542,7 @@
         <v>1401</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C36" s="1">
         <v>0</v>
@@ -5258,7 +5630,7 @@
         <v>1402</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C37" s="1">
         <v>0</v>
@@ -5346,7 +5718,7 @@
         <v>1403</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C38" s="1">
         <v>0</v>
@@ -5434,7 +5806,7 @@
         <v>1404</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C39" s="1">
         <v>0</v>
@@ -5522,7 +5894,7 @@
         <v>1405</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C40" s="1">
         <v>0</v>
@@ -5610,7 +5982,7 @@
         <v>1406</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C41" s="1">
         <v>0</v>
@@ -5698,7 +6070,7 @@
         <v>1407</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C42" s="1">
         <v>0</v>
@@ -5786,7 +6158,7 @@
         <v>1408</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C43" s="1">
         <v>0</v>
@@ -5874,7 +6246,7 @@
         <v>1409</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C44" s="1">
         <v>0</v>
@@ -5962,7 +6334,7 @@
         <v>1410</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C45" s="1">
         <v>0</v>
@@ -6050,7 +6422,7 @@
         <v>1411</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C46" s="1">
         <v>0</v>
@@ -6138,7 +6510,7 @@
         <v>1412</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C47" s="1">
         <v>0</v>
@@ -6226,7 +6598,7 @@
         <v>1413</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C48" s="1">
         <v>0</v>
@@ -6314,7 +6686,7 @@
         <v>1414</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C49" s="1">
         <v>0</v>
@@ -6402,7 +6774,7 @@
         <v>1415</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C50" s="1">
         <v>0</v>
@@ -6490,7 +6862,7 @@
         <v>1416</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C51" s="1">
         <v>0</v>
@@ -6578,7 +6950,7 @@
         <v>1417</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C52" s="1">
         <v>0</v>
@@ -6666,7 +7038,7 @@
         <v>1418</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C53" s="1">
         <v>0</v>
@@ -6754,7 +7126,7 @@
         <v>1419</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C54" s="1">
         <v>0</v>
@@ -6842,7 +7214,7 @@
         <v>1420</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C55" s="1">
         <v>0</v>
@@ -6930,7 +7302,7 @@
         <v>1421</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C56" s="1">
         <v>0</v>
@@ -7018,7 +7390,7 @@
         <v>1422</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C57" s="1">
         <v>0</v>
@@ -7106,7 +7478,7 @@
         <v>1423</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C58" s="1">
         <v>0</v>
@@ -7194,7 +7566,7 @@
         <v>1424</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C59" s="1">
         <v>0</v>
@@ -7209,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H59" s="2">
         <v>1</v>
@@ -7282,7 +7654,7 @@
         <v>1425</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C60" s="1">
         <v>0</v>
@@ -7370,7 +7742,7 @@
         <v>1426</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C61" s="1">
         <v>0</v>
@@ -7385,7 +7757,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H61" s="2">
         <v>1</v>
@@ -7458,7 +7830,7 @@
         <v>1427</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C62" s="1">
         <v>0</v>
@@ -7546,7 +7918,7 @@
         <v>1428</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C63" s="1">
         <v>0</v>
@@ -7634,7 +8006,7 @@
         <v>1429</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C64" s="1">
         <v>0</v>
@@ -7722,7 +8094,7 @@
         <v>1430</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C65" s="1">
         <v>0</v>
@@ -7810,7 +8182,7 @@
         <v>1431</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1">
         <v>0</v>
@@ -7898,7 +8270,7 @@
         <v>1432</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C67" s="1">
         <v>0</v>
@@ -7986,7 +8358,7 @@
         <v>1501</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C68" s="1">
         <v>0</v>
@@ -8074,7 +8446,7 @@
         <v>1502</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C69" s="1">
         <v>0</v>
@@ -8089,7 +8461,7 @@
         <v>0</v>
       </c>
       <c r="G69" s="20" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H69" s="2">
         <v>1</v>
@@ -8162,7 +8534,7 @@
         <v>1601</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C70" s="1">
         <v>0</v>
@@ -8250,7 +8622,7 @@
         <v>1602</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C71" s="1">
         <v>0</v>
@@ -8338,7 +8710,7 @@
         <v>1603</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C72" s="1">
         <v>0</v>
@@ -8426,7 +8798,7 @@
         <v>1604</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="1">
         <v>0</v>
@@ -8514,7 +8886,7 @@
         <v>1701</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C74" s="1">
         <v>0</v>
@@ -8602,7 +8974,7 @@
         <v>1702</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C75" s="1">
         <v>0</v>
@@ -8690,7 +9062,7 @@
         <v>1703</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C76" s="1">
         <v>0</v>
@@ -8778,7 +9150,7 @@
         <v>1704</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C77" s="1">
         <v>0</v>
@@ -8866,7 +9238,7 @@
         <v>1705</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C78" s="1">
         <v>0</v>
@@ -8881,7 +9253,7 @@
         <v>1</v>
       </c>
       <c r="G78" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H78" s="2">
         <v>0</v>
@@ -8954,7 +9326,7 @@
         <v>1706</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C79" s="1">
         <v>0</v>
@@ -9042,7 +9414,7 @@
         <v>1707</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C80" s="1">
         <v>0</v>
@@ -9057,7 +9429,7 @@
         <v>1</v>
       </c>
       <c r="G80" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H80" s="2">
         <v>0</v>
@@ -9130,7 +9502,7 @@
         <v>1708</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C81" s="1">
         <v>0</v>
@@ -9145,7 +9517,7 @@
         <v>1</v>
       </c>
       <c r="G81" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H81" s="2">
         <v>0</v>
@@ -9218,7 +9590,7 @@
         <v>1709</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C82" s="1">
         <v>0</v>
@@ -9306,7 +9678,7 @@
         <v>1710</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C83" s="1">
         <v>0</v>
@@ -9394,7 +9766,7 @@
         <v>1801</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C84" s="1">
         <v>0</v>
@@ -9482,7 +9854,7 @@
         <v>1802</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C85" s="1">
         <v>0</v>
@@ -9497,7 +9869,7 @@
         <v>1</v>
       </c>
       <c r="G85" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H85" s="2">
         <v>0</v>
@@ -9585,7 +9957,7 @@
         <v>1</v>
       </c>
       <c r="G86" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H86" s="2">
         <v>0</v>
@@ -9658,7 +10030,7 @@
         <v>1804</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C87" s="1">
         <v>0</v>
@@ -9746,7 +10118,7 @@
         <v>1901</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C88" s="1">
         <v>0</v>
@@ -9834,7 +10206,7 @@
         <v>1902</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C89" s="1">
         <v>0</v>
@@ -9922,7 +10294,7 @@
         <v>1903</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C90" s="1">
         <v>0</v>
@@ -10010,7 +10382,7 @@
         <v>2001</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C91" s="1">
         <v>1</v>
@@ -10094,11 +10466,11 @@
       </c>
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A92" s="29" t="s">
-        <v>401</v>
-      </c>
-      <c r="B92" s="29" t="s">
-        <v>402</v>
+      <c r="A92" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>400</v>
       </c>
       <c r="C92" s="1">
         <v>0</v>
@@ -10113,7 +10485,7 @@
         <v>0</v>
       </c>
       <c r="G92" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H92" s="2">
         <v>0</v>
@@ -10186,7 +10558,7 @@
         <v>2003</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C93" s="1">
         <v>0</v>
@@ -10201,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="G93" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H93" s="2">
         <v>0</v>
@@ -10274,7 +10646,7 @@
         <v>2004</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C94" s="1">
         <v>0</v>
@@ -10362,7 +10734,7 @@
         <v>2005</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C95" s="1">
         <v>0</v>
@@ -10377,7 +10749,7 @@
         <v>1</v>
       </c>
       <c r="G95" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H95" s="2">
         <v>0</v>
@@ -10450,7 +10822,7 @@
         <v>2007</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C96" s="1">
         <v>0</v>
@@ -10465,7 +10837,7 @@
         <v>1</v>
       </c>
       <c r="G96" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H96" s="2">
         <v>0</v>
@@ -10538,7 +10910,7 @@
         <v>2008</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C97" s="1">
         <v>0</v>
@@ -10553,7 +10925,7 @@
         <v>1</v>
       </c>
       <c r="G97" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H97" s="2">
         <v>0</v>
@@ -10626,7 +10998,7 @@
         <v>2009</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C98" s="1">
         <v>0</v>
@@ -10714,7 +11086,7 @@
         <v>2100</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C99" s="1">
         <v>0</v>
@@ -10802,7 +11174,7 @@
         <v>2201</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C100" s="1">
         <v>0</v>
@@ -10890,7 +11262,7 @@
         <v>2202</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C101" s="1">
         <v>0</v>
@@ -10978,7 +11350,7 @@
         <v>2203</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C102" s="1">
         <v>0</v>
@@ -11066,7 +11438,7 @@
         <v>2204</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C103" s="1">
         <v>0</v>
@@ -11154,7 +11526,7 @@
         <v>2301</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C104" s="1">
         <v>0</v>
@@ -11242,7 +11614,7 @@
         <v>2302</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C105" s="1">
         <v>0</v>
@@ -11330,7 +11702,7 @@
         <v>2303</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C106" s="1">
         <v>0</v>
@@ -11418,7 +11790,7 @@
         <v>2304</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C107" s="1">
         <v>0</v>
@@ -11506,7 +11878,7 @@
         <v>2305</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C108" s="1">
         <v>0</v>
@@ -11594,7 +11966,7 @@
         <v>2306</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C109" s="1">
         <v>0</v>
@@ -11682,7 +12054,7 @@
         <v>2307</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C110" s="1">
         <v>0</v>
@@ -11785,7 +12157,7 @@
         <v>1</v>
       </c>
       <c r="G111" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H111" s="2">
         <v>0</v>
@@ -11854,11 +12226,11 @@
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A112" s="29" t="s">
-        <v>403</v>
-      </c>
-      <c r="B112" s="29" t="s">
-        <v>404</v>
+      <c r="A112" s="28" t="s">
+        <v>401</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>402</v>
       </c>
       <c r="C112" s="1">
         <v>0</v>
@@ -11946,7 +12318,7 @@
         <v>2404</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C113" s="1">
         <v>0</v>
@@ -12034,7 +12406,7 @@
         <v>2405</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C114" s="1">
         <v>0</v>
@@ -12122,7 +12494,7 @@
         <v>2407</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C115" s="1">
         <v>0</v>
@@ -12210,7 +12582,7 @@
         <v>2500</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C116" s="1">
         <v>0</v>
@@ -12298,7 +12670,7 @@
         <v>2601</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C117" s="1">
         <v>0</v>
@@ -12386,7 +12758,7 @@
         <v>2602</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C118" s="1">
         <v>0</v>
@@ -12474,7 +12846,7 @@
         <v>2603</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C119" s="1">
         <v>0</v>
@@ -12562,7 +12934,7 @@
         <v>2604</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C120" s="1">
         <v>0</v>
@@ -12650,7 +13022,7 @@
         <v>2605</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C121" s="1">
         <v>0</v>
@@ -12738,7 +13110,7 @@
         <v>2606</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C122" s="1">
         <v>0</v>
@@ -12826,7 +13198,7 @@
         <v>2607</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C123" s="1">
         <v>0</v>
@@ -12914,7 +13286,7 @@
         <v>2608</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C124" s="1">
         <v>0</v>
@@ -13002,7 +13374,7 @@
         <v>2701</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C125" s="1">
         <v>0</v>
@@ -13090,7 +13462,7 @@
         <v>2702</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C126" s="1">
         <v>0</v>
@@ -13178,7 +13550,7 @@
         <v>2703</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C127" s="1">
         <v>0</v>
@@ -13266,7 +13638,7 @@
         <v>2704</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C128" s="1">
         <v>0</v>
@@ -13350,11 +13722,11 @@
       </c>
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A129" s="29" t="s">
-        <v>405</v>
-      </c>
-      <c r="B129" s="29" t="s">
-        <v>406</v>
+      <c r="A129" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="B129" s="28" t="s">
+        <v>404</v>
       </c>
       <c r="C129" s="1">
         <v>0</v>
@@ -13442,7 +13814,7 @@
         <v>2803</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C130" s="1">
         <v>0</v>
@@ -13530,7 +13902,7 @@
         <v>2804</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C131" s="1">
         <v>0</v>
@@ -13618,7 +13990,7 @@
         <v>2901</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C132" s="1">
         <v>0</v>
@@ -13706,7 +14078,7 @@
         <v>2902</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C133" s="1">
         <v>0</v>
@@ -13794,7 +14166,7 @@
         <v>2903</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C134" s="1">
         <v>0</v>
@@ -13882,7 +14254,7 @@
         <v>3000</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C135" s="1">
         <v>0</v>
@@ -13970,7 +14342,7 @@
         <v>3101</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C136" s="1">
         <v>0</v>
@@ -14054,11 +14426,11 @@
       </c>
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A137" s="29" t="s">
-        <v>407</v>
-      </c>
-      <c r="B137" s="29" t="s">
-        <v>408</v>
+      <c r="A137" s="28" t="s">
+        <v>405</v>
+      </c>
+      <c r="B137" s="28" t="s">
+        <v>406</v>
       </c>
       <c r="C137" s="1">
         <v>0</v>
@@ -14073,7 +14445,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H137" s="2">
         <v>0</v>
@@ -14146,7 +14518,7 @@
         <v>3201</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C138" s="1">
         <v>0</v>
@@ -14234,7 +14606,7 @@
         <v>3202</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C139" s="1">
         <v>0</v>
@@ -14322,7 +14694,7 @@
         <v>3203</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C140" s="1">
         <v>0</v>
@@ -14410,7 +14782,7 @@
         <v>3204</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C141" s="1">
         <v>0</v>
@@ -14498,7 +14870,7 @@
         <v>3300</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C142" s="1">
         <v>0</v>
@@ -14586,7 +14958,7 @@
         <v>3401</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C143" s="1">
         <v>0</v>
@@ -14674,7 +15046,7 @@
         <v>3402</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C144" s="1">
         <v>0</v>
@@ -14762,7 +15134,7 @@
         <v>3403</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C145" s="1">
         <v>0</v>
@@ -14850,7 +15222,7 @@
         <v>3501</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C146" s="1">
         <v>0</v>
@@ -14938,7 +15310,7 @@
         <v>3502</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C147" s="1">
         <v>0</v>
@@ -15026,7 +15398,7 @@
         <v>3601</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C148" s="1">
         <v>0</v>
@@ -15041,7 +15413,7 @@
         <v>0</v>
       </c>
       <c r="G148" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H148" s="2">
         <v>0</v>
@@ -15114,7 +15486,7 @@
         <v>3602</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C149" s="1">
         <v>0</v>
@@ -15202,7 +15574,7 @@
         <v>3603</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150" s="1">
         <v>0</v>
@@ -15290,7 +15662,7 @@
         <v>3604</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C151" s="1">
         <v>0</v>
@@ -15305,7 +15677,7 @@
         <v>1</v>
       </c>
       <c r="G151" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H151" s="2">
         <v>0</v>
@@ -15378,7 +15750,7 @@
         <v>3605</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C152" s="1">
         <v>0</v>
@@ -15393,7 +15765,7 @@
         <v>1</v>
       </c>
       <c r="G152" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H152" s="2">
         <v>0</v>
@@ -15466,7 +15838,7 @@
         <v>3606</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C153" s="1">
         <v>0</v>
@@ -15481,7 +15853,7 @@
         <v>1</v>
       </c>
       <c r="G153" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H153" s="2">
         <v>0</v>
@@ -15554,7 +15926,7 @@
         <v>3607</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C154" s="1">
         <v>0</v>
@@ -15642,7 +16014,7 @@
         <v>3608</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C155" s="1">
         <v>0</v>
@@ -15730,7 +16102,7 @@
         <v>3609</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C156" s="1">
         <v>0</v>
@@ -15818,7 +16190,7 @@
         <v>3610</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C157" s="1">
         <v>0</v>
@@ -15833,7 +16205,7 @@
         <v>1</v>
       </c>
       <c r="G157" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H157" s="2">
         <v>0</v>
@@ -15906,7 +16278,7 @@
         <v>3611</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C158" s="1">
         <v>0</v>
@@ -15994,7 +16366,7 @@
         <v>3612</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C159" s="1">
         <v>0</v>
@@ -16009,7 +16381,7 @@
         <v>1</v>
       </c>
       <c r="G159" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H159" s="2">
         <v>0</v>
@@ -16082,7 +16454,7 @@
         <v>3613</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C160" s="1">
         <v>0</v>
@@ -16097,7 +16469,7 @@
         <v>1</v>
       </c>
       <c r="G160" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H160" s="2">
         <v>0</v>
@@ -16170,7 +16542,7 @@
         <v>3614</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C161" s="1">
         <v>0</v>
@@ -16185,7 +16557,7 @@
         <v>1</v>
       </c>
       <c r="G161" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H161" s="2">
         <v>0</v>
@@ -16258,7 +16630,7 @@
         <v>3615</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C162" s="1">
         <v>0</v>
@@ -16346,7 +16718,7 @@
         <v>3616</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C163" s="1">
         <v>0</v>
@@ -16434,7 +16806,7 @@
         <v>3617</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C164" s="1">
         <v>0</v>
@@ -16522,7 +16894,7 @@
         <v>3618</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C165" s="1">
         <v>0</v>
@@ -16610,7 +16982,7 @@
         <v>3619</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C166" s="1">
         <v>0</v>
@@ -16698,7 +17070,7 @@
         <v>3620</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C167" s="1">
         <v>0</v>
@@ -16713,7 +17085,7 @@
         <v>1</v>
       </c>
       <c r="G167" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H167" s="2">
         <v>0</v>
@@ -16786,7 +17158,7 @@
         <v>3621</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C168" s="1">
         <v>0</v>
@@ -16874,7 +17246,7 @@
         <v>3622</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C169" s="1">
         <v>0</v>
@@ -16962,7 +17334,7 @@
         <v>3701</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C170" s="1">
         <v>0</v>
@@ -17050,7 +17422,7 @@
         <v>3702</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C171" s="1">
         <v>0</v>
@@ -17138,7 +17510,7 @@
         <v>3703</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C172" s="1">
         <v>0</v>
@@ -17153,7 +17525,7 @@
         <v>1</v>
       </c>
       <c r="G172" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H172" s="2">
         <v>0</v>
@@ -17226,7 +17598,7 @@
         <v>3704</v>
       </c>
       <c r="B173" s="15" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C173" s="1">
         <v>0</v>
@@ -17314,7 +17686,7 @@
         <v>3801</v>
       </c>
       <c r="B174" s="15" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C174" s="1">
         <v>0</v>
@@ -17402,7 +17774,7 @@
         <v>3802</v>
       </c>
       <c r="B175" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C175" s="1">
         <v>0</v>
@@ -17417,7 +17789,7 @@
         <v>0</v>
       </c>
       <c r="G175" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H175" s="2">
         <v>0</v>
@@ -17490,7 +17862,7 @@
         <v>3803</v>
       </c>
       <c r="B176" s="15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C176" s="1">
         <v>0</v>
@@ -17505,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H176" s="2">
         <v>0</v>
@@ -17578,7 +17950,7 @@
         <v>3804</v>
       </c>
       <c r="B177" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C177" s="1">
         <v>0</v>
@@ -17666,7 +18038,7 @@
         <v>3805</v>
       </c>
       <c r="B178" s="15" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C178" s="1">
         <v>0</v>
@@ -17754,7 +18126,7 @@
         <v>3806</v>
       </c>
       <c r="B179" s="15" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C179" s="1">
         <v>0</v>
@@ -17769,7 +18141,7 @@
         <v>1</v>
       </c>
       <c r="G179" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H179" s="2">
         <v>0</v>
@@ -17842,7 +18214,7 @@
         <v>3807</v>
       </c>
       <c r="B180" s="15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C180" s="1">
         <v>0</v>
@@ -17930,7 +18302,7 @@
         <v>3808</v>
       </c>
       <c r="B181" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C181" s="1">
         <v>0</v>
@@ -18018,7 +18390,7 @@
         <v>3809</v>
       </c>
       <c r="B182" s="15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C182" s="1">
         <v>0</v>
@@ -18033,7 +18405,7 @@
         <v>1</v>
       </c>
       <c r="G182" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H182" s="2">
         <v>0</v>
@@ -18106,7 +18478,7 @@
         <v>3810</v>
       </c>
       <c r="B183" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C183" s="1">
         <v>0</v>
@@ -18194,7 +18566,7 @@
         <v>3811</v>
       </c>
       <c r="B184" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C184" s="1">
         <v>0</v>
@@ -18282,7 +18654,7 @@
         <v>3812</v>
       </c>
       <c r="B185" s="15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C185" s="1">
         <v>0</v>
@@ -18370,7 +18742,7 @@
         <v>3813</v>
       </c>
       <c r="B186" s="15" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C186" s="1">
         <v>0</v>
@@ -18458,7 +18830,7 @@
         <v>3814</v>
       </c>
       <c r="B187" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C187" s="1">
         <v>0</v>
@@ -18546,7 +18918,7 @@
         <v>3901</v>
       </c>
       <c r="B188" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C188" s="1">
         <v>0</v>
@@ -18634,7 +19006,7 @@
         <v>3902</v>
       </c>
       <c r="B189" s="15" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C189" s="1">
         <v>0</v>
@@ -18722,7 +19094,7 @@
         <v>4001</v>
       </c>
       <c r="B190" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C190" s="1">
         <v>0</v>
@@ -18737,7 +19109,7 @@
         <v>1</v>
       </c>
       <c r="G190" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H190" s="2">
         <v>0</v>
@@ -18810,7 +19182,7 @@
         <v>4002</v>
       </c>
       <c r="B191" s="15" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C191" s="1">
         <v>0</v>
@@ -18825,7 +19197,7 @@
         <v>1</v>
       </c>
       <c r="G191" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H191" s="2">
         <v>0</v>
@@ -18898,7 +19270,7 @@
         <v>4003</v>
       </c>
       <c r="B192" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C192" s="1">
         <v>0</v>
@@ -18986,7 +19358,7 @@
         <v>4004</v>
       </c>
       <c r="B193" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C193" s="1">
         <v>0</v>
@@ -19001,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="G193" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H193" s="2">
         <v>0</v>
@@ -19074,7 +19446,7 @@
         <v>4005</v>
       </c>
       <c r="B194" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C194" s="1">
         <v>0</v>
@@ -19089,7 +19461,7 @@
         <v>1</v>
       </c>
       <c r="G194" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H194" s="2">
         <v>0</v>
@@ -19162,7 +19534,7 @@
         <v>4006</v>
       </c>
       <c r="B195" s="15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C195" s="1">
         <v>0</v>
@@ -19250,7 +19622,7 @@
         <v>4007</v>
       </c>
       <c r="B196" s="15" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C196" s="1">
         <v>0</v>
@@ -19338,7 +19710,7 @@
         <v>4008</v>
       </c>
       <c r="B197" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C197" s="1">
         <v>0</v>
@@ -19426,7 +19798,7 @@
         <v>4009</v>
       </c>
       <c r="B198" s="15" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C198" s="1">
         <v>0</v>
@@ -19514,7 +19886,7 @@
         <v>4101</v>
       </c>
       <c r="B199" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C199" s="1">
         <v>0</v>
@@ -19602,7 +19974,7 @@
         <v>4102</v>
       </c>
       <c r="B200" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C200" s="1">
         <v>0</v>
@@ -19690,7 +20062,7 @@
         <v>4201</v>
       </c>
       <c r="B201" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C201" s="1">
         <v>0</v>
@@ -19778,7 +20150,7 @@
         <v>4202</v>
       </c>
       <c r="B202" s="15" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C202" s="1">
         <v>0</v>
@@ -19866,7 +20238,7 @@
         <v>4203</v>
       </c>
       <c r="B203" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C203" s="1">
         <v>0</v>
@@ -19954,7 +20326,7 @@
         <v>4204</v>
       </c>
       <c r="B204" s="15" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C204" s="1">
         <v>0</v>
@@ -19969,7 +20341,7 @@
         <v>1</v>
       </c>
       <c r="G204" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H204" s="2">
         <v>0</v>
@@ -20042,7 +20414,7 @@
         <v>4205</v>
       </c>
       <c r="B205" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C205" s="1">
         <v>0</v>
@@ -20130,7 +20502,7 @@
         <v>4206</v>
       </c>
       <c r="B206" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C206" s="1">
         <v>0</v>
@@ -20218,7 +20590,7 @@
         <v>4207</v>
       </c>
       <c r="B207" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C207" s="1">
         <v>0</v>
@@ -20306,7 +20678,7 @@
         <v>4208</v>
       </c>
       <c r="B208" s="15" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C208" s="1">
         <v>0</v>
@@ -20394,7 +20766,7 @@
         <v>4209</v>
       </c>
       <c r="B209" s="15" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C209" s="1">
         <v>0</v>
@@ -20409,7 +20781,7 @@
         <v>1</v>
       </c>
       <c r="G209" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H209" s="2">
         <v>0</v>
@@ -20482,7 +20854,7 @@
         <v>4210</v>
       </c>
       <c r="B210" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C210" s="1">
         <v>0</v>
@@ -20570,7 +20942,7 @@
         <v>4211</v>
       </c>
       <c r="B211" s="15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C211" s="1">
         <v>0</v>
@@ -20658,7 +21030,7 @@
         <v>4301</v>
       </c>
       <c r="B212" s="15" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C212" s="1">
         <v>0</v>
@@ -20746,7 +21118,7 @@
         <v>4302</v>
       </c>
       <c r="B213" s="15" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C213" s="1">
         <v>0</v>
@@ -20834,7 +21206,7 @@
         <v>4400</v>
       </c>
       <c r="B214" s="15" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C214" s="1">
         <v>0</v>
@@ -20922,7 +21294,7 @@
         <v>4501</v>
       </c>
       <c r="B215" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C215" s="1">
         <v>0</v>
@@ -21010,7 +21382,7 @@
         <v>4502</v>
       </c>
       <c r="B216" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C216" s="1">
         <v>0</v>
@@ -21098,7 +21470,7 @@
         <v>4503</v>
       </c>
       <c r="B217" s="15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C217" s="1">
         <v>0</v>
@@ -21186,7 +21558,7 @@
         <v>4601</v>
       </c>
       <c r="B218" s="15" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C218" s="1">
         <v>0</v>
@@ -21274,7 +21646,7 @@
         <v>4602</v>
       </c>
       <c r="B219" s="15" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C219" s="1">
         <v>0</v>
@@ -21362,7 +21734,7 @@
         <v>4603</v>
       </c>
       <c r="B220" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C220" s="1">
         <v>0</v>
@@ -21450,7 +21822,7 @@
         <v>4604</v>
       </c>
       <c r="B221" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C221" s="1">
         <v>0</v>
@@ -21538,7 +21910,7 @@
         <v>4701</v>
       </c>
       <c r="B222" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C222" s="1">
         <v>0</v>
@@ -21626,7 +21998,7 @@
         <v>4702</v>
       </c>
       <c r="B223" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C223" s="1">
         <v>0</v>
@@ -21714,7 +22086,7 @@
         <v>4703</v>
       </c>
       <c r="B224" s="15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C224" s="1">
         <v>0</v>
@@ -21802,7 +22174,7 @@
         <v>4704</v>
       </c>
       <c r="B225" s="15" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C225" s="1">
         <v>0</v>
@@ -21890,7 +22262,7 @@
         <v>4801</v>
       </c>
       <c r="B226" s="15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C226" s="1">
         <v>0</v>
@@ -21978,7 +22350,7 @@
         <v>4802</v>
       </c>
       <c r="B227" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C227" s="1">
         <v>0</v>
@@ -22066,7 +22438,7 @@
         <v>4803</v>
       </c>
       <c r="B228" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C228" s="1">
         <v>0</v>
@@ -22154,7 +22526,7 @@
         <v>4804</v>
       </c>
       <c r="B229" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C229" s="1">
         <v>0</v>
@@ -22242,7 +22614,7 @@
         <v>4805</v>
       </c>
       <c r="B230" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C230" s="1">
         <v>0</v>
@@ -22330,7 +22702,7 @@
         <v>4806</v>
       </c>
       <c r="B231" s="15" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C231" s="1">
         <v>0</v>
@@ -22418,7 +22790,7 @@
         <v>4901</v>
       </c>
       <c r="B232" s="15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C232" s="1">
         <v>0</v>
@@ -22506,7 +22878,7 @@
         <v>4902</v>
       </c>
       <c r="B233" s="15" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C233" s="1">
         <v>0</v>
@@ -22594,7 +22966,7 @@
         <v>4903</v>
       </c>
       <c r="B234" s="15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C234" s="1">
         <v>0</v>
@@ -22682,7 +23054,7 @@
         <v>4904</v>
       </c>
       <c r="B235" s="15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C235" s="1">
         <v>0</v>
@@ -22770,7 +23142,7 @@
         <v>4905</v>
       </c>
       <c r="B236" s="15" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C236" s="1">
         <v>0</v>
@@ -22858,7 +23230,7 @@
         <v>4906</v>
       </c>
       <c r="B237" s="15" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C237" s="1">
         <v>0</v>
@@ -22946,7 +23318,7 @@
         <v>4907</v>
       </c>
       <c r="B238" s="15" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C238" s="1">
         <v>0</v>
@@ -23034,7 +23406,7 @@
         <v>5000</v>
       </c>
       <c r="B239" s="15" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C239" s="1">
         <v>0</v>
@@ -23122,7 +23494,7 @@
         <v>5101</v>
       </c>
       <c r="B240" s="15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C240" s="1">
         <v>0</v>
@@ -23210,7 +23582,7 @@
         <v>5102</v>
       </c>
       <c r="B241" s="15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C241" s="1">
         <v>0</v>
@@ -23298,7 +23670,7 @@
         <v>5103</v>
       </c>
       <c r="B242" s="15" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C242" s="1">
         <v>0</v>
@@ -23386,7 +23758,7 @@
         <v>5104</v>
       </c>
       <c r="B243" s="15" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C243" s="1">
         <v>0</v>
@@ -23474,7 +23846,7 @@
         <v>5201</v>
       </c>
       <c r="B244" s="15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C244" s="1">
         <v>0</v>
@@ -23562,7 +23934,7 @@
         <v>5202</v>
       </c>
       <c r="B245" s="15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C245" s="1">
         <v>0</v>
@@ -23650,7 +24022,7 @@
         <v>5203</v>
       </c>
       <c r="B246" s="15" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C246" s="1">
         <v>0</v>
@@ -23738,7 +24110,7 @@
         <v>5204</v>
       </c>
       <c r="B247" s="15" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C247" s="1">
         <v>0</v>
@@ -23826,7 +24198,7 @@
         <v>5205</v>
       </c>
       <c r="B248" s="15" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C248" s="1">
         <v>0</v>
@@ -23914,7 +24286,7 @@
         <v>5301</v>
       </c>
       <c r="B249" s="15" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C249" s="1">
         <v>0</v>
@@ -24002,7 +24374,7 @@
         <v>5302</v>
       </c>
       <c r="B250" s="15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C250" s="1">
         <v>0</v>
@@ -24090,7 +24462,7 @@
         <v>5303</v>
       </c>
       <c r="B251" s="15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C251" s="1">
         <v>0</v>
@@ -24178,7 +24550,7 @@
         <v>5304</v>
       </c>
       <c r="B252" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C252" s="1">
         <v>0</v>
@@ -24266,7 +24638,7 @@
         <v>5305</v>
       </c>
       <c r="B253" s="15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C253" s="1">
         <v>0</v>
@@ -24354,7 +24726,7 @@
         <v>5306</v>
       </c>
       <c r="B254" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C254" s="1">
         <v>0</v>
@@ -24442,7 +24814,7 @@
         <v>5307</v>
       </c>
       <c r="B255" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C255" s="1">
         <v>0</v>
@@ -24530,7 +24902,7 @@
         <v>5308</v>
       </c>
       <c r="B256" s="15" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C256" s="1">
         <v>0</v>
@@ -24618,7 +24990,7 @@
         <v>5401</v>
       </c>
       <c r="B257" s="15" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C257" s="1">
         <v>0</v>
@@ -24706,7 +25078,7 @@
         <v>5402</v>
       </c>
       <c r="B258" s="15" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C258" s="1">
         <v>0</v>
@@ -24794,7 +25166,7 @@
         <v>5403</v>
       </c>
       <c r="B259" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C259" s="1">
         <v>0</v>
@@ -24882,7 +25254,7 @@
         <v>5404</v>
       </c>
       <c r="B260" s="15" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C260" s="1">
         <v>0</v>
@@ -24970,7 +25342,7 @@
         <v>5405</v>
       </c>
       <c r="B261" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C261" s="1">
         <v>0</v>
@@ -25058,7 +25430,7 @@
         <v>5406</v>
       </c>
       <c r="B262" s="15" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C262" s="1">
         <v>0</v>
@@ -25146,7 +25518,7 @@
         <v>5407</v>
       </c>
       <c r="B263" s="15" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C263" s="1">
         <v>0</v>
@@ -25234,7 +25606,7 @@
         <v>5501</v>
       </c>
       <c r="B264" s="15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C264" s="1">
         <v>0</v>
@@ -25322,7 +25694,7 @@
         <v>5502</v>
       </c>
       <c r="B265" s="15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C265" s="1">
         <v>0</v>
@@ -25410,7 +25782,7 @@
         <v>5503</v>
       </c>
       <c r="B266" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C266" s="1">
         <v>0</v>
@@ -25498,7 +25870,7 @@
         <v>5601</v>
       </c>
       <c r="B267" s="15" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C267" s="1">
         <v>0</v>
@@ -25586,7 +25958,7 @@
         <v>5602</v>
       </c>
       <c r="B268" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C268" s="1">
         <v>0</v>
@@ -25674,7 +26046,7 @@
         <v>5603</v>
       </c>
       <c r="B269" s="15" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C269" s="1">
         <v>0</v>
@@ -25762,7 +26134,7 @@
         <v>5604</v>
       </c>
       <c r="B270" s="15" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C270" s="1">
         <v>0</v>
@@ -25850,7 +26222,7 @@
         <v>5701</v>
       </c>
       <c r="B271" s="15" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C271" s="1">
         <v>0</v>
@@ -25938,7 +26310,7 @@
         <v>5702</v>
       </c>
       <c r="B272" s="15" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C272" s="1">
         <v>0</v>
@@ -26026,7 +26398,7 @@
         <v>5703</v>
       </c>
       <c r="B273" s="15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C273" s="1">
         <v>0</v>
@@ -26114,7 +26486,7 @@
         <v>5801</v>
       </c>
       <c r="B274" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C274" s="1">
         <v>0</v>
@@ -26202,7 +26574,7 @@
         <v>5802</v>
       </c>
       <c r="B275" s="15" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C275" s="1">
         <v>0</v>
@@ -26290,7 +26662,7 @@
         <v>5803</v>
       </c>
       <c r="B276" s="15" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C276" s="1">
         <v>0</v>
@@ -26378,7 +26750,7 @@
         <v>5804</v>
       </c>
       <c r="B277" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C277" s="1">
         <v>0</v>
@@ -26466,7 +26838,7 @@
         <v>5805</v>
       </c>
       <c r="B278" s="15" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C278" s="1">
         <v>0</v>
@@ -26554,7 +26926,7 @@
         <v>5901</v>
       </c>
       <c r="B279" s="15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C279" s="1">
         <v>0</v>
@@ -26642,7 +27014,7 @@
         <v>5902</v>
       </c>
       <c r="B280" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C280" s="1">
         <v>0</v>
@@ -26730,7 +27102,7 @@
         <v>5903</v>
       </c>
       <c r="B281" s="15" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C281" s="1">
         <v>0</v>
@@ -26818,7 +27190,7 @@
         <v>6001</v>
       </c>
       <c r="B282" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C282" s="1">
         <v>0</v>
@@ -26906,7 +27278,7 @@
         <v>6002</v>
       </c>
       <c r="B283" s="15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C283" s="1">
         <v>0</v>
@@ -26994,7 +27366,7 @@
         <v>6003</v>
       </c>
       <c r="B284" s="15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C284" s="1">
         <v>0</v>
@@ -27082,7 +27454,7 @@
         <v>6004</v>
       </c>
       <c r="B285" s="15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C285" s="1">
         <v>0</v>
@@ -27170,7 +27542,7 @@
         <v>6101</v>
       </c>
       <c r="B286" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C286" s="1">
         <v>0</v>
@@ -27258,7 +27630,7 @@
         <v>6102</v>
       </c>
       <c r="B287" s="15" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C287" s="1">
         <v>0</v>
@@ -27346,7 +27718,7 @@
         <v>6103</v>
       </c>
       <c r="B288" s="15" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C288" s="1">
         <v>0</v>
@@ -27434,7 +27806,7 @@
         <v>6104</v>
       </c>
       <c r="B289" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C289" s="1">
         <v>0</v>
@@ -27522,7 +27894,7 @@
         <v>6105</v>
       </c>
       <c r="B290" s="15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C290" s="1">
         <v>0</v>
@@ -27610,7 +27982,7 @@
         <v>6106</v>
       </c>
       <c r="B291" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C291" s="1">
         <v>0</v>
@@ -27698,7 +28070,7 @@
         <v>6107</v>
       </c>
       <c r="B292" s="15" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C292" s="1">
         <v>0</v>
@@ -27786,7 +28158,7 @@
         <v>6201</v>
       </c>
       <c r="B293" s="15" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C293" s="1">
         <v>0</v>
@@ -27874,7 +28246,7 @@
         <v>6202</v>
       </c>
       <c r="B294" s="15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C294" s="1">
         <v>0</v>
@@ -27962,7 +28334,7 @@
         <v>6203</v>
       </c>
       <c r="B295" s="15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C295" s="1">
         <v>0</v>
@@ -28050,7 +28422,7 @@
         <v>6204</v>
       </c>
       <c r="B296" s="15" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C296" s="1">
         <v>0</v>
@@ -28138,7 +28510,7 @@
         <v>6205</v>
       </c>
       <c r="B297" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C297" s="1">
         <v>0</v>
@@ -28226,7 +28598,7 @@
         <v>6206</v>
       </c>
       <c r="B298" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C298" s="1">
         <v>0</v>
@@ -28314,7 +28686,7 @@
         <v>6207</v>
       </c>
       <c r="B299" s="15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C299" s="1">
         <v>0</v>
@@ -28402,7 +28774,7 @@
         <v>6301</v>
       </c>
       <c r="B300" s="15" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C300" s="1">
         <v>0</v>
@@ -28490,7 +28862,7 @@
         <v>6302</v>
       </c>
       <c r="B301" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C301" s="1">
         <v>0</v>
@@ -28578,7 +28950,7 @@
         <v>6303</v>
       </c>
       <c r="B302" s="15" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C302" s="1">
         <v>0</v>
@@ -28666,7 +29038,7 @@
         <v>6401</v>
       </c>
       <c r="B303" s="15" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C303" s="1">
         <v>0</v>
@@ -28754,7 +29126,7 @@
         <v>6402</v>
       </c>
       <c r="B304" s="15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C304" s="1">
         <v>0</v>
@@ -28842,7 +29214,7 @@
         <v>6403</v>
       </c>
       <c r="B305" s="15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C305" s="1">
         <v>0</v>
@@ -28930,7 +29302,7 @@
         <v>6404</v>
       </c>
       <c r="B306" s="15" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C306" s="1">
         <v>0</v>
@@ -29018,7 +29390,7 @@
         <v>6405</v>
       </c>
       <c r="B307" s="15" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C307" s="1">
         <v>0</v>
@@ -29106,7 +29478,7 @@
         <v>6406</v>
       </c>
       <c r="B308" s="15" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C308" s="1">
         <v>0</v>
@@ -29194,7 +29566,7 @@
         <v>6407</v>
       </c>
       <c r="B309" s="15" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C309" s="1">
         <v>0</v>
@@ -29282,7 +29654,7 @@
         <v>6408</v>
       </c>
       <c r="B310" s="15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C310" s="1">
         <v>0</v>
@@ -29370,7 +29742,7 @@
         <v>6409</v>
       </c>
       <c r="B311" s="15" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C311" s="1">
         <v>0</v>
@@ -29458,7 +29830,7 @@
         <v>6410</v>
       </c>
       <c r="B312" s="15" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C312" s="1">
         <v>0</v>
@@ -29546,7 +29918,7 @@
         <v>6411</v>
       </c>
       <c r="B313" s="15" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C313" s="1">
         <v>0</v>
@@ -29634,7 +30006,7 @@
         <v>6412</v>
       </c>
       <c r="B314" s="15" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C314" s="1">
         <v>0</v>
@@ -29722,7 +30094,7 @@
         <v>6501</v>
       </c>
       <c r="B315" s="15" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C315" s="1">
         <v>0</v>
@@ -29810,7 +30182,7 @@
         <v>6502</v>
       </c>
       <c r="B316" s="15" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C316" s="1">
         <v>0</v>
@@ -29898,7 +30270,7 @@
         <v>6503</v>
       </c>
       <c r="B317" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C317" s="1">
         <v>0</v>
@@ -30074,7 +30446,7 @@
         <v>6505</v>
       </c>
       <c r="B319" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C319" s="1">
         <v>0</v>
@@ -30162,7 +30534,7 @@
         <v>6506</v>
       </c>
       <c r="B320" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C320" s="1">
         <v>0</v>
@@ -30250,7 +30622,7 @@
         <v>6507</v>
       </c>
       <c r="B321" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C321" s="1">
         <v>0</v>
@@ -30338,7 +30710,7 @@
         <v>6600</v>
       </c>
       <c r="B322" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C322" s="1">
         <v>0</v>
@@ -30426,7 +30798,7 @@
         <v>6700</v>
       </c>
       <c r="B323" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C323" s="1">
         <v>0</v>
@@ -30514,7 +30886,7 @@
         <v>6801</v>
       </c>
       <c r="B324" s="15" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C324" s="1">
         <v>0</v>
@@ -30602,7 +30974,7 @@
         <v>6802</v>
       </c>
       <c r="B325" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C325" s="1">
         <v>0</v>
@@ -30690,7 +31062,7 @@
         <v>6803</v>
       </c>
       <c r="B326" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C326" s="1">
         <v>0</v>
@@ -30778,7 +31150,7 @@
         <v>6901</v>
       </c>
       <c r="B327" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C327" s="1">
         <v>0</v>
@@ -30866,7 +31238,7 @@
         <v>6902</v>
       </c>
       <c r="B328" s="15" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C328" s="1">
         <v>0</v>
@@ -30954,7 +31326,7 @@
         <v>7001</v>
       </c>
       <c r="B329" s="15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C329" s="1">
         <v>0</v>
@@ -31042,7 +31414,7 @@
         <v>7002</v>
       </c>
       <c r="B330" s="15" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C330" s="1">
         <v>0</v>
@@ -31130,7 +31502,7 @@
         <v>7003</v>
       </c>
       <c r="B331" s="15" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C331" s="1">
         <v>0</v>
@@ -31306,7 +31678,7 @@
         <v>7005</v>
       </c>
       <c r="B333" s="15" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C333" s="1">
         <v>0</v>
@@ -31392,7 +31764,7 @@
         <v>7101</v>
       </c>
       <c r="B334" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C334" s="1">
         <v>0</v>
@@ -31480,7 +31852,7 @@
         <v>7102</v>
       </c>
       <c r="B335" s="15" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C335" s="1">
         <v>0</v>
@@ -31568,7 +31940,7 @@
         <v>7201</v>
       </c>
       <c r="B336" s="15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C336" s="1">
         <v>0</v>
@@ -31656,7 +32028,7 @@
         <v>7202</v>
       </c>
       <c r="B337" s="15" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C337" s="1">
         <v>0</v>
@@ -31744,7 +32116,7 @@
         <v>7203</v>
       </c>
       <c r="B338" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C338" s="1">
         <v>0</v>
@@ -31832,7 +32204,7 @@
         <v>7301</v>
       </c>
       <c r="B339" s="15" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C339" s="1">
         <v>0</v>
@@ -31920,7 +32292,7 @@
         <v>7302</v>
       </c>
       <c r="B340" s="15" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C340" s="1">
         <v>0</v>
@@ -32008,7 +32380,7 @@
         <v>7303</v>
       </c>
       <c r="B341" s="15" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C341" s="1">
         <v>0</v>
@@ -32096,7 +32468,7 @@
         <v>7500</v>
       </c>
       <c r="B342" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C342" s="1">
         <v>0</v>
@@ -32184,7 +32556,7 @@
         <v>7601</v>
       </c>
       <c r="B343" s="15" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C343" s="1">
         <v>0</v>
@@ -32272,7 +32644,7 @@
         <v>7602</v>
       </c>
       <c r="B344" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C344" s="1">
         <v>0</v>
@@ -32360,7 +32732,7 @@
         <v>7701</v>
       </c>
       <c r="B345" s="15" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C345" s="1">
         <v>0</v>
@@ -32448,7 +32820,7 @@
         <v>7702</v>
       </c>
       <c r="B346" s="15" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C346" s="1">
         <v>0</v>
@@ -32536,7 +32908,7 @@
         <v>7703</v>
       </c>
       <c r="B347" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C347" s="1">
         <v>0</v>
@@ -32624,7 +32996,7 @@
         <v>7704</v>
       </c>
       <c r="B348" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C348" s="1">
         <v>0</v>
@@ -32712,7 +33084,7 @@
         <v>7705</v>
       </c>
       <c r="B349" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C349" s="1">
         <v>0</v>
@@ -32800,7 +33172,7 @@
         <v>7801</v>
       </c>
       <c r="B350" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C350" s="1">
         <v>0</v>
@@ -32888,7 +33260,7 @@
         <v>7802</v>
       </c>
       <c r="B351" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C351" s="1">
         <v>0</v>
@@ -32903,7 +33275,7 @@
         <v>0</v>
       </c>
       <c r="G351" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H351" s="2">
         <v>0</v>
@@ -32976,7 +33348,7 @@
         <v>7803</v>
       </c>
       <c r="B352" s="15" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C352" s="1">
         <v>0</v>
@@ -33150,7 +33522,7 @@
         <v>7901</v>
       </c>
       <c r="B354" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C354" s="1">
         <v>0</v>
@@ -33236,7 +33608,7 @@
         <v>7902</v>
       </c>
       <c r="B355" s="15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C355" s="1">
         <v>0</v>
@@ -33322,7 +33694,7 @@
         <v>7903</v>
       </c>
       <c r="B356" s="15" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C356" s="1">
         <v>0</v>
@@ -33410,7 +33782,7 @@
         <v>8001</v>
       </c>
       <c r="B357" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C357" s="1">
         <v>0</v>
@@ -33498,7 +33870,7 @@
         <v>8002</v>
       </c>
       <c r="B358" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C358" s="1">
         <v>0</v>
@@ -33513,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G358" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H358" s="2">
         <v>0</v>
@@ -33586,7 +33958,7 @@
         <v>8100</v>
       </c>
       <c r="B359" s="15" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C359" s="1">
         <v>0</v>
@@ -33601,7 +33973,7 @@
         <v>0</v>
       </c>
       <c r="G359" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H359" s="2">
         <v>0</v>
@@ -33674,7 +34046,7 @@
         <v>8200</v>
       </c>
       <c r="B360" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C360" s="1">
         <v>0</v>
@@ -33762,7 +34134,7 @@
         <v>8300</v>
       </c>
       <c r="B361" s="15" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C361" s="1">
         <v>0</v>
@@ -33777,7 +34149,7 @@
         <v>0</v>
       </c>
       <c r="G361" s="19" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H361" s="2">
         <v>0</v>
@@ -33850,7 +34222,7 @@
         <v>8400</v>
       </c>
       <c r="B362" s="15" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C362" s="1">
         <v>0</v>
@@ -33938,7 +34310,7 @@
         <v>8500</v>
       </c>
       <c r="B363" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C363" s="1">
         <v>0</v>
@@ -34024,7 +34396,7 @@
         <v>8600</v>
       </c>
       <c r="B364" s="15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C364" s="1">
         <v>0</v>
@@ -34112,7 +34484,7 @@
         <v>8700</v>
       </c>
       <c r="B365" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C365" s="24">
         <v>0</v>
@@ -34499,4 +34871,5480 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6363E589-B6F6-4DCA-AF73-5F2B7AE2CEFF}">
+  <dimension ref="A2:U64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="46.6640625" customWidth="1"/>
+    <col min="4" max="20" width="15.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17" ht="18" x14ac:dyDescent="0.35">
+      <c r="B2" s="30" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+    </row>
+    <row r="5" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B5" s="31" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D6" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="E6" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>416</v>
+      </c>
+      <c r="I6" s="32" t="s">
+        <v>417</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>418</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>419</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>420</v>
+      </c>
+      <c r="M6" s="32" t="s">
+        <v>421</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>422</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>423</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="D7" s="32" t="s">
+        <v>426</v>
+      </c>
+      <c r="E7" s="32" t="s">
+        <v>427</v>
+      </c>
+      <c r="F7" s="32" t="s">
+        <v>428</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>429</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>430</v>
+      </c>
+      <c r="I7" s="32" t="s">
+        <v>431</v>
+      </c>
+      <c r="J7" s="32" t="s">
+        <v>432</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>433</v>
+      </c>
+      <c r="L7" s="32" t="s">
+        <v>434</v>
+      </c>
+      <c r="M7" s="32" t="s">
+        <v>435</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>436</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>437</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q7" s="33" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>414</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>428</v>
+      </c>
+      <c r="D8" s="35">
+        <v>0</v>
+      </c>
+      <c r="E8" s="36">
+        <v>0</v>
+      </c>
+      <c r="F8" s="36">
+        <v>0.85</v>
+      </c>
+      <c r="G8" s="36">
+        <v>0.6</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>0</v>
+      </c>
+      <c r="K8" s="36">
+        <v>0</v>
+      </c>
+      <c r="L8" s="36">
+        <v>0</v>
+      </c>
+      <c r="M8" s="36">
+        <v>0</v>
+      </c>
+      <c r="N8" s="36">
+        <v>0</v>
+      </c>
+      <c r="O8" s="36">
+        <v>0</v>
+      </c>
+      <c r="P8" s="37">
+        <v>0.7</v>
+      </c>
+      <c r="Q8" s="38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>440</v>
+      </c>
+      <c r="C9" s="39" t="s">
+        <v>441</v>
+      </c>
+      <c r="D9" s="40">
+        <v>0.85</v>
+      </c>
+      <c r="E9" s="41">
+        <v>0.85</v>
+      </c>
+      <c r="F9" s="41">
+        <v>0</v>
+      </c>
+      <c r="G9" s="41">
+        <v>0</v>
+      </c>
+      <c r="H9" s="41">
+        <v>0</v>
+      </c>
+      <c r="I9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="J9" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="L9" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M9" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="N9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="O9" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="P9" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="Q9" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>442</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>443</v>
+      </c>
+      <c r="D10" s="44">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
+        <v>0</v>
+      </c>
+      <c r="F10" s="41">
+        <v>0</v>
+      </c>
+      <c r="G10" s="41">
+        <v>0</v>
+      </c>
+      <c r="H10" s="41">
+        <v>0</v>
+      </c>
+      <c r="I10" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M10" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="N10" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="O10" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="P10" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="Q10" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>444</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>445</v>
+      </c>
+      <c r="D11" s="44">
+        <v>0</v>
+      </c>
+      <c r="E11" s="41">
+        <v>0</v>
+      </c>
+      <c r="F11" s="41">
+        <v>0</v>
+      </c>
+      <c r="G11" s="41">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41">
+        <v>0</v>
+      </c>
+      <c r="I11" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M11" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="N11" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="O11" s="42">
+        <v>0.8</v>
+      </c>
+      <c r="P11" s="42">
+        <v>0.7</v>
+      </c>
+      <c r="Q11" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B12" s="33" t="s">
+        <v>446</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="D12" s="44">
+        <v>0</v>
+      </c>
+      <c r="E12" s="41">
+        <v>0</v>
+      </c>
+      <c r="F12" s="41">
+        <v>0</v>
+      </c>
+      <c r="G12" s="41">
+        <v>0</v>
+      </c>
+      <c r="H12" s="41">
+        <v>0</v>
+      </c>
+      <c r="I12" s="41">
+        <v>0</v>
+      </c>
+      <c r="J12" s="41">
+        <v>0</v>
+      </c>
+      <c r="K12" s="41">
+        <v>0</v>
+      </c>
+      <c r="L12" s="41">
+        <v>0</v>
+      </c>
+      <c r="M12" s="41">
+        <v>0</v>
+      </c>
+      <c r="N12" s="41">
+        <v>0</v>
+      </c>
+      <c r="O12" s="41">
+        <v>0</v>
+      </c>
+      <c r="P12" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Q12" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>13</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>448</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>449</v>
+      </c>
+      <c r="D13" s="44">
+        <v>0</v>
+      </c>
+      <c r="E13" s="41">
+        <v>0</v>
+      </c>
+      <c r="F13" s="41">
+        <v>0</v>
+      </c>
+      <c r="G13" s="41">
+        <v>0</v>
+      </c>
+      <c r="H13" s="41">
+        <v>0.92631909366008403</v>
+      </c>
+      <c r="I13" s="42">
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J13" s="41">
+        <v>0.89004126278255302</v>
+      </c>
+      <c r="K13" s="42">
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="L13" s="41">
+        <v>0.88642733207046298</v>
+      </c>
+      <c r="M13" s="41">
+        <v>0.88129071613306198</v>
+      </c>
+      <c r="N13" s="42">
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="O13" s="42">
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="P13" s="42">
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="Q13" s="47">
+        <v>0.94166040230902204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>14</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>451</v>
+      </c>
+      <c r="D14" s="44">
+        <v>0</v>
+      </c>
+      <c r="E14" s="41">
+        <v>0</v>
+      </c>
+      <c r="F14" s="41">
+        <v>0</v>
+      </c>
+      <c r="G14" s="41">
+        <v>0</v>
+      </c>
+      <c r="H14" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="I14" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="J14" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K14" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="L14" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M14" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="N14" s="41">
+        <v>0</v>
+      </c>
+      <c r="O14" s="41">
+        <v>0</v>
+      </c>
+      <c r="P14" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Q14" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>15</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>453</v>
+      </c>
+      <c r="D15" s="44">
+        <v>0</v>
+      </c>
+      <c r="E15" s="41">
+        <v>0</v>
+      </c>
+      <c r="F15" s="41">
+        <v>0</v>
+      </c>
+      <c r="G15" s="41">
+        <v>0</v>
+      </c>
+      <c r="H15" s="41">
+        <v>0.98800605724956503</v>
+      </c>
+      <c r="I15" s="42">
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J15" s="41">
+        <v>1</v>
+      </c>
+      <c r="K15" s="42">
+        <v>1</v>
+      </c>
+      <c r="L15" s="41">
+        <v>1</v>
+      </c>
+      <c r="M15" s="41">
+        <v>1</v>
+      </c>
+      <c r="N15" s="42">
+        <v>1</v>
+      </c>
+      <c r="O15" s="42">
+        <v>0.999156412809172</v>
+      </c>
+      <c r="P15" s="42">
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="Q15" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>16</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>454</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>455</v>
+      </c>
+      <c r="D16" s="44">
+        <v>0</v>
+      </c>
+      <c r="E16" s="41">
+        <v>0</v>
+      </c>
+      <c r="F16" s="41">
+        <v>0</v>
+      </c>
+      <c r="G16" s="41">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41">
+        <v>0.93196078849751895</v>
+      </c>
+      <c r="I16" s="42">
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J16" s="41">
+        <v>0.92506224740253995</v>
+      </c>
+      <c r="K16" s="42">
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="L16" s="41">
+        <v>0.95784981126300694</v>
+      </c>
+      <c r="M16" s="41">
+        <v>0.92480067633781304</v>
+      </c>
+      <c r="N16" s="42">
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="O16" s="42">
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="P16" s="42">
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="Q16" s="47">
+        <v>0.95200977870694903</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>17</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>457</v>
+      </c>
+      <c r="D17" s="44">
+        <v>0</v>
+      </c>
+      <c r="E17" s="41">
+        <v>0</v>
+      </c>
+      <c r="F17" s="41">
+        <v>0</v>
+      </c>
+      <c r="G17" s="41">
+        <v>0</v>
+      </c>
+      <c r="H17" s="41">
+        <v>0.99766367004677803</v>
+      </c>
+      <c r="I17" s="42">
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J17" s="41">
+        <v>1</v>
+      </c>
+      <c r="K17" s="42">
+        <v>1</v>
+      </c>
+      <c r="L17" s="41">
+        <v>0.99998577931585997</v>
+      </c>
+      <c r="M17" s="41">
+        <v>0.99987357745073902</v>
+      </c>
+      <c r="N17" s="42">
+        <v>1</v>
+      </c>
+      <c r="O17" s="42">
+        <v>1</v>
+      </c>
+      <c r="P17" s="42">
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="Q17" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>18</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>459</v>
+      </c>
+      <c r="D18" s="44">
+        <v>0</v>
+      </c>
+      <c r="E18" s="41">
+        <v>0</v>
+      </c>
+      <c r="F18" s="41">
+        <v>0</v>
+      </c>
+      <c r="G18" s="41">
+        <v>0</v>
+      </c>
+      <c r="H18" s="41">
+        <v>0.99990715571585498</v>
+      </c>
+      <c r="I18" s="42">
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J18" s="41">
+        <v>0.999829857254386</v>
+      </c>
+      <c r="K18" s="42">
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="L18" s="41">
+        <v>0.99991695252840795</v>
+      </c>
+      <c r="M18" s="41">
+        <v>0.99969184027675295</v>
+      </c>
+      <c r="N18" s="42">
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="O18" s="42">
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="P18" s="42">
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="Q18" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>19</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>460</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>461</v>
+      </c>
+      <c r="D19" s="44">
+        <v>0</v>
+      </c>
+      <c r="E19" s="41">
+        <v>0</v>
+      </c>
+      <c r="F19" s="41">
+        <v>0</v>
+      </c>
+      <c r="G19" s="41">
+        <v>0</v>
+      </c>
+      <c r="H19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="I19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="J19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="K19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="L19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="M19" s="41">
+        <v>0.8</v>
+      </c>
+      <c r="N19" s="41">
+        <v>0</v>
+      </c>
+      <c r="O19" s="41">
+        <v>0</v>
+      </c>
+      <c r="P19" s="41">
+        <v>0.7</v>
+      </c>
+      <c r="Q19" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>20</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>430</v>
+      </c>
+      <c r="D20" s="44">
+        <v>0</v>
+      </c>
+      <c r="E20" s="41">
+        <v>0</v>
+      </c>
+      <c r="F20" s="41">
+        <v>0</v>
+      </c>
+      <c r="G20" s="41">
+        <v>0</v>
+      </c>
+      <c r="H20" s="41">
+        <v>0.93906914981729195</v>
+      </c>
+      <c r="I20" s="41">
+        <v>1</v>
+      </c>
+      <c r="J20" s="41">
+        <v>1</v>
+      </c>
+      <c r="K20" s="41">
+        <v>1</v>
+      </c>
+      <c r="L20" s="41">
+        <v>1</v>
+      </c>
+      <c r="M20" s="41">
+        <v>1</v>
+      </c>
+      <c r="N20" s="41">
+        <v>1</v>
+      </c>
+      <c r="O20" s="41">
+        <v>1</v>
+      </c>
+      <c r="P20" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>21</v>
+      </c>
+      <c r="B21" s="33"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="41"/>
+      <c r="F21" s="41"/>
+      <c r="G21" s="41"/>
+      <c r="H21" s="41"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="41"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
+      <c r="M21" s="41"/>
+      <c r="N21" s="41"/>
+      <c r="O21" s="41"/>
+      <c r="P21" s="41"/>
+      <c r="Q21" s="43"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>22</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>417</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>431</v>
+      </c>
+      <c r="D22" s="49">
+        <v>0</v>
+      </c>
+      <c r="E22" s="50">
+        <v>0</v>
+      </c>
+      <c r="F22" s="50">
+        <v>0</v>
+      </c>
+      <c r="G22" s="50">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50">
+        <v>0.99919911626622504</v>
+      </c>
+      <c r="I22" s="50">
+        <v>0.87677531783260598</v>
+      </c>
+      <c r="J22" s="50">
+        <v>0.99934833441944304</v>
+      </c>
+      <c r="K22" s="50">
+        <v>0.99081651699607998</v>
+      </c>
+      <c r="L22" s="50">
+        <v>0.99984188056712198</v>
+      </c>
+      <c r="M22" s="50">
+        <v>0.95856711264566297</v>
+      </c>
+      <c r="N22" s="50">
+        <v>0.97927689954939101</v>
+      </c>
+      <c r="O22" s="50">
+        <v>0.98477251797624299</v>
+      </c>
+      <c r="P22" s="41">
+        <v>0.99956726608327695</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>23</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>418</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>432</v>
+      </c>
+      <c r="D23" s="49">
+        <v>0</v>
+      </c>
+      <c r="E23" s="50">
+        <v>0</v>
+      </c>
+      <c r="F23" s="50">
+        <v>0</v>
+      </c>
+      <c r="G23" s="50">
+        <v>0</v>
+      </c>
+      <c r="H23" s="50">
+        <v>1</v>
+      </c>
+      <c r="I23" s="50">
+        <v>0.99483779676117601</v>
+      </c>
+      <c r="J23" s="50">
+        <v>0.93729264738237394</v>
+      </c>
+      <c r="K23" s="50">
+        <v>1</v>
+      </c>
+      <c r="L23" s="50">
+        <v>0.99980424661399503</v>
+      </c>
+      <c r="M23" s="50">
+        <v>1</v>
+      </c>
+      <c r="N23" s="50">
+        <v>1</v>
+      </c>
+      <c r="O23" s="50">
+        <v>1</v>
+      </c>
+      <c r="P23" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="51">
+        <v>0.83333333333333304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>24</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>419</v>
+      </c>
+      <c r="C24" s="33" t="s">
+        <v>433</v>
+      </c>
+      <c r="D24" s="49">
+        <v>0</v>
+      </c>
+      <c r="E24" s="50">
+        <v>0</v>
+      </c>
+      <c r="F24" s="50">
+        <v>0</v>
+      </c>
+      <c r="G24" s="50">
+        <v>0</v>
+      </c>
+      <c r="H24" s="50">
+        <v>1</v>
+      </c>
+      <c r="I24" s="50">
+        <v>1</v>
+      </c>
+      <c r="J24" s="50">
+        <v>1</v>
+      </c>
+      <c r="K24" s="50">
+        <v>1</v>
+      </c>
+      <c r="L24" s="50">
+        <v>1</v>
+      </c>
+      <c r="M24" s="50">
+        <v>1</v>
+      </c>
+      <c r="N24" s="50">
+        <v>1</v>
+      </c>
+      <c r="O24" s="50">
+        <v>1</v>
+      </c>
+      <c r="P24" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q24" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>420</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>434</v>
+      </c>
+      <c r="D25" s="49">
+        <v>0</v>
+      </c>
+      <c r="E25" s="50">
+        <v>0</v>
+      </c>
+      <c r="F25" s="50">
+        <v>0</v>
+      </c>
+      <c r="G25" s="50">
+        <v>0</v>
+      </c>
+      <c r="H25" s="50">
+        <v>1</v>
+      </c>
+      <c r="I25" s="50">
+        <v>1</v>
+      </c>
+      <c r="J25" s="50">
+        <v>1</v>
+      </c>
+      <c r="K25" s="50">
+        <v>1</v>
+      </c>
+      <c r="L25" s="50">
+        <v>1</v>
+      </c>
+      <c r="M25" s="50">
+        <v>1</v>
+      </c>
+      <c r="N25" s="50">
+        <v>1</v>
+      </c>
+      <c r="O25" s="50">
+        <v>1</v>
+      </c>
+      <c r="P25" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="51">
+        <v>0.94234466577596099</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>26</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>421</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>435</v>
+      </c>
+      <c r="D26" s="49">
+        <v>0</v>
+      </c>
+      <c r="E26" s="50">
+        <v>0</v>
+      </c>
+      <c r="F26" s="50">
+        <v>0</v>
+      </c>
+      <c r="G26" s="50">
+        <v>0</v>
+      </c>
+      <c r="H26" s="50">
+        <v>1</v>
+      </c>
+      <c r="I26" s="50">
+        <v>1</v>
+      </c>
+      <c r="J26" s="50">
+        <v>1</v>
+      </c>
+      <c r="K26" s="50">
+        <v>1</v>
+      </c>
+      <c r="L26" s="50">
+        <v>1</v>
+      </c>
+      <c r="M26" s="50">
+        <v>1</v>
+      </c>
+      <c r="N26" s="50">
+        <v>1</v>
+      </c>
+      <c r="O26" s="50">
+        <v>1</v>
+      </c>
+      <c r="P26" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>27</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C27" s="33" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" s="49">
+        <v>0</v>
+      </c>
+      <c r="E27" s="50">
+        <v>0</v>
+      </c>
+      <c r="F27" s="50">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="50">
+        <v>1</v>
+      </c>
+      <c r="I27" s="50">
+        <v>1</v>
+      </c>
+      <c r="J27" s="50">
+        <v>1</v>
+      </c>
+      <c r="K27" s="50">
+        <v>1</v>
+      </c>
+      <c r="L27" s="50">
+        <v>1</v>
+      </c>
+      <c r="M27" s="50">
+        <v>1</v>
+      </c>
+      <c r="N27" s="50">
+        <v>1</v>
+      </c>
+      <c r="O27" s="50">
+        <v>1</v>
+      </c>
+      <c r="P27" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>28</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>423</v>
+      </c>
+      <c r="C28" s="33" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="49">
+        <v>0</v>
+      </c>
+      <c r="E28" s="50">
+        <v>0</v>
+      </c>
+      <c r="F28" s="50">
+        <v>0</v>
+      </c>
+      <c r="G28" s="50">
+        <v>0</v>
+      </c>
+      <c r="H28" s="50">
+        <v>1</v>
+      </c>
+      <c r="I28" s="50">
+        <v>1</v>
+      </c>
+      <c r="J28" s="50">
+        <v>1</v>
+      </c>
+      <c r="K28" s="50">
+        <v>1</v>
+      </c>
+      <c r="L28" s="50">
+        <v>1</v>
+      </c>
+      <c r="M28" s="50">
+        <v>1</v>
+      </c>
+      <c r="N28" s="50">
+        <v>1</v>
+      </c>
+      <c r="O28" s="50">
+        <v>1</v>
+      </c>
+      <c r="P28" s="41">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>29</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>424</v>
+      </c>
+      <c r="C29" s="33" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="52">
+        <v>0</v>
+      </c>
+      <c r="E29" s="53">
+        <v>0</v>
+      </c>
+      <c r="F29" s="53">
+        <v>0</v>
+      </c>
+      <c r="G29" s="53">
+        <v>0</v>
+      </c>
+      <c r="H29" s="53">
+        <v>1</v>
+      </c>
+      <c r="I29" s="53">
+        <v>1</v>
+      </c>
+      <c r="J29" s="53">
+        <v>1</v>
+      </c>
+      <c r="K29" s="53">
+        <v>1</v>
+      </c>
+      <c r="L29" s="53">
+        <v>1</v>
+      </c>
+      <c r="M29" s="53">
+        <v>1</v>
+      </c>
+      <c r="N29" s="53">
+        <v>1</v>
+      </c>
+      <c r="O29" s="53">
+        <v>1</v>
+      </c>
+      <c r="P29" s="54">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="P30" s="56"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B33" s="31" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="D34" s="57" t="s">
+        <v>463</v>
+      </c>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" t="s">
+        <v>19</v>
+      </c>
+      <c r="J34" t="s">
+        <v>20</v>
+      </c>
+      <c r="K34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" s="57" t="s">
+        <v>464</v>
+      </c>
+      <c r="N34" s="57"/>
+      <c r="O34" s="57"/>
+      <c r="Q34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B35" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>28</v>
+      </c>
+      <c r="H35" t="s">
+        <v>26</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+      <c r="J35" t="s">
+        <v>20</v>
+      </c>
+      <c r="K35" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>18</v>
+      </c>
+      <c r="N35" t="s">
+        <v>21</v>
+      </c>
+      <c r="O35" t="s">
+        <v>9</v>
+      </c>
+      <c r="P35" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>10</v>
+      </c>
+      <c r="R35" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" t="s">
+        <v>25</v>
+      </c>
+      <c r="T35" t="s">
+        <v>5</v>
+      </c>
+      <c r="U35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A36" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B36" s="17">
+        <v>2001</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="59"/>
+      <c r="M36" s="59">
+        <f t="shared" ref="M36:O38" si="0">$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N36" s="59">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="O36" s="59">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="P36" s="59"/>
+      <c r="Q36" s="59"/>
+      <c r="R36" s="59"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="60"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A37" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C37" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="62">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N37" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O37" s="62">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="62"/>
+      <c r="T37" s="62"/>
+      <c r="U37" s="63"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A38" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B38" s="17">
+        <v>2003</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="62">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="N38" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O38" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="62"/>
+      <c r="T38" s="62"/>
+      <c r="U38" s="63"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A39" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B39" s="17">
+        <v>2004</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N39" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O39" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="63"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A40" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B40" s="17">
+        <v>2005</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N40" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O40" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="62"/>
+      <c r="T40" s="62"/>
+      <c r="U40" s="63"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A41" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B41" s="17">
+        <v>2007</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N41" s="62">
+        <f t="shared" ref="N41:O43" si="1">$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="O41" s="62">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="62"/>
+      <c r="T41" s="62"/>
+      <c r="U41" s="63"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A42" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B42" s="17">
+        <v>2008</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" s="61"/>
+      <c r="E42" s="62"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="62">
+        <f>$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N42" s="62">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="O42" s="62">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="62"/>
+      <c r="T42" s="62"/>
+      <c r="U42" s="63"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A43" s="34" t="s">
+        <v>466</v>
+      </c>
+      <c r="B43" s="17">
+        <v>2009</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="62"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="62">
+        <f t="shared" ref="M43" si="2">$P$8</f>
+        <v>0.7</v>
+      </c>
+      <c r="N43" s="62">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="O43" s="62">
+        <f t="shared" si="1"/>
+        <v>0.7</v>
+      </c>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="62"/>
+      <c r="T43" s="62"/>
+      <c r="U43" s="63"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A44" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="B44" s="17">
+        <v>3501</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>324</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="62"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62">
+        <f>$K$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J44" s="62">
+        <f>$I$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="K44" s="62">
+        <f>$N$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L44" s="62">
+        <f>$O$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="M44" s="62">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="N44" s="62">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="O44" s="62">
+        <f>$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="62"/>
+      <c r="T44" s="62"/>
+      <c r="U44" s="63"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A45" s="45" t="s">
+        <v>467</v>
+      </c>
+      <c r="B45" s="17">
+        <v>3502</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="62"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62">
+        <f>$K$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="J45" s="62">
+        <f t="shared" ref="J45" si="3">$I$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="K45" s="62">
+        <f t="shared" ref="K45" si="4">$N$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="L45" s="62">
+        <f t="shared" ref="L45" si="5">$O$11</f>
+        <v>0.8</v>
+      </c>
+      <c r="M45" s="62">
+        <f t="shared" ref="M45:O45" si="6">$P$11</f>
+        <v>0.7</v>
+      </c>
+      <c r="N45" s="62">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="O45" s="62">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="62"/>
+      <c r="T45" s="62"/>
+      <c r="U45" s="63"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A46" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B46" s="17">
+        <v>3701</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>329</v>
+      </c>
+      <c r="D46" s="61">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E46" s="62">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F46" s="62">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G46" s="62">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H46" s="62">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I46" s="62">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J46" s="62">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K46" s="62">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L46" s="62">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M46" s="62">
+        <f t="shared" ref="M46:O48" si="7">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N46" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O46" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="62"/>
+      <c r="T46" s="62"/>
+      <c r="U46" s="63"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A47" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B47" s="17">
+        <v>3702</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="61">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E47" s="62">
+        <f t="shared" ref="E47:G48" si="8">$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F47" s="62">
+        <f t="shared" si="8"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G47" s="62">
+        <f t="shared" si="8"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H47" s="62">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I47" s="62">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J47" s="62">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K47" s="62">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L47" s="62">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M47" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N47" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O47" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="62"/>
+      <c r="T47" s="62"/>
+      <c r="U47" s="63"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A48" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B48" s="17">
+        <v>3703</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="61">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E48" s="62">
+        <f t="shared" si="8"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F48" s="62">
+        <f t="shared" si="8"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G48" s="62">
+        <f t="shared" si="8"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H48" s="62">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I48" s="62">
+        <f>$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J48" s="62">
+        <f>$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K48" s="62">
+        <f>$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L48" s="62">
+        <f>$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M48" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N48" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O48" s="62">
+        <f t="shared" si="7"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="62"/>
+      <c r="T48" s="62"/>
+      <c r="U48" s="63"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A49" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B49" s="17">
+        <v>3804</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>141</v>
+      </c>
+      <c r="D49" s="61">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="E49" s="62">
+        <f t="shared" ref="E49:H51" si="9">$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="F49" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G49" s="62">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="H49" s="62">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="I49" s="62">
+        <f>$K$15</f>
+        <v>1</v>
+      </c>
+      <c r="J49" s="62">
+        <f>$I$15</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="K49" s="62">
+        <f>$N$15</f>
+        <v>1</v>
+      </c>
+      <c r="L49" s="62">
+        <f>$O$15</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="M49" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N49" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O49" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="62"/>
+      <c r="T49" s="62"/>
+      <c r="U49" s="63"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A50" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B50" s="17">
+        <v>3808</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="D50" s="61">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="E50" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F50" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G50" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H50" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I50" s="62">
+        <f>$K$15</f>
+        <v>1</v>
+      </c>
+      <c r="J50" s="62">
+        <f>$I$15</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="K50" s="62">
+        <f>$N$15</f>
+        <v>1</v>
+      </c>
+      <c r="L50" s="62">
+        <f>$O$15</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="M50" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N50" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O50" s="62">
+        <f t="shared" ref="O50:O51" si="10">$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="62"/>
+      <c r="T50" s="62"/>
+      <c r="U50" s="63"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A51" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B51" s="17">
+        <v>3811</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" s="61">
+        <f>$Q$15</f>
+        <v>1</v>
+      </c>
+      <c r="E51" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="F51" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="G51" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="H51" s="62">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="I51" s="62">
+        <f>$K$15</f>
+        <v>1</v>
+      </c>
+      <c r="J51" s="62">
+        <f>$I$15</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="K51" s="62">
+        <f>$N$15</f>
+        <v>1</v>
+      </c>
+      <c r="L51" s="62">
+        <f>$O$15</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="M51" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N51" s="62">
+        <f>$P$15</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O51" s="62">
+        <f t="shared" si="10"/>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="62"/>
+      <c r="T51" s="62"/>
+      <c r="U51" s="63"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A52" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B52" s="17">
+        <v>3801</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="D52" s="61">
+        <f t="shared" ref="D52:G54" si="11">$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="E52" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F52" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G52" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H52" s="62">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="I52" s="62">
+        <f>$K$17</f>
+        <v>1</v>
+      </c>
+      <c r="J52" s="62">
+        <f>$I$17</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="K52" s="62">
+        <f>$N$17</f>
+        <v>1</v>
+      </c>
+      <c r="L52" s="62">
+        <f>$O$17</f>
+        <v>1</v>
+      </c>
+      <c r="M52" s="62">
+        <f t="shared" ref="M52:O54" si="12">$P$17</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N52" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O52" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="P52" s="62"/>
+      <c r="Q52" s="62"/>
+      <c r="R52" s="62"/>
+      <c r="S52" s="62"/>
+      <c r="T52" s="62"/>
+      <c r="U52" s="63"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A53" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B53" s="17">
+        <v>3807</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D53" s="61">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E53" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F53" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G53" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H53" s="62">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="I53" s="62">
+        <f>$K$17</f>
+        <v>1</v>
+      </c>
+      <c r="J53" s="62">
+        <f>$I$17</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="K53" s="62">
+        <f>$N$17</f>
+        <v>1</v>
+      </c>
+      <c r="L53" s="62">
+        <f>$O$17</f>
+        <v>1</v>
+      </c>
+      <c r="M53" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N53" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O53" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="P53" s="62"/>
+      <c r="Q53" s="62"/>
+      <c r="R53" s="62"/>
+      <c r="S53" s="62"/>
+      <c r="T53" s="62"/>
+      <c r="U53" s="63"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A54" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B54" s="17">
+        <v>3812</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" s="61">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="E54" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="62">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="H54" s="62">
+        <f>$Q$17</f>
+        <v>1</v>
+      </c>
+      <c r="I54" s="62">
+        <f>$K$17</f>
+        <v>1</v>
+      </c>
+      <c r="J54" s="62">
+        <f>$I$17</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="K54" s="62">
+        <f>$N$17</f>
+        <v>1</v>
+      </c>
+      <c r="L54" s="62">
+        <f>$O$17</f>
+        <v>1</v>
+      </c>
+      <c r="M54" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N54" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O54" s="62">
+        <f t="shared" si="12"/>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="P54" s="62"/>
+      <c r="Q54" s="62"/>
+      <c r="R54" s="62"/>
+      <c r="S54" s="62"/>
+      <c r="T54" s="62"/>
+      <c r="U54" s="63"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A55" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B55" s="17">
+        <v>3802</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="D55" s="61">
+        <f t="shared" ref="D55:H56" si="13">$Q$16</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E55" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F55" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G55" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H55" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="I55" s="62">
+        <f>$K$16</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="J55" s="62">
+        <f>$I$16</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="K55" s="62">
+        <f>$N$16</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="L55" s="62">
+        <f>$O$16</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="M55" s="62">
+        <f t="shared" ref="M55:O56" si="14">$P$16</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N55" s="62">
+        <f t="shared" si="14"/>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O55" s="62">
+        <f t="shared" si="14"/>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="P55" s="62"/>
+      <c r="Q55" s="62"/>
+      <c r="R55" s="62"/>
+      <c r="S55" s="62"/>
+      <c r="T55" s="62"/>
+      <c r="U55" s="63"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A56" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B56" s="17">
+        <v>3803</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D56" s="61">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E56" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F56" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G56" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H56" s="62">
+        <f t="shared" si="13"/>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="I56" s="62">
+        <f>$K$16</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="J56" s="62">
+        <f>$I$16</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="K56" s="62">
+        <f>$N$16</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="L56" s="62">
+        <f>$O$16</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="M56" s="62">
+        <f t="shared" si="14"/>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N56" s="62">
+        <f t="shared" si="14"/>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O56" s="62">
+        <f t="shared" si="14"/>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="62"/>
+      <c r="R56" s="62"/>
+      <c r="S56" s="62"/>
+      <c r="T56" s="62"/>
+      <c r="U56" s="63"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A57" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B57" s="17">
+        <v>3813</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D57" s="61">
+        <f t="shared" ref="D57:H62" si="15">$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="E57" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F57" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G57" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H57" s="62">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="I57" s="62">
+        <f>$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J57" s="62">
+        <f>$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K57" s="62">
+        <f>$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L57" s="62">
+        <f>$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M57" s="62">
+        <f t="shared" ref="M57:O62" si="16">$P$18</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N57" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O57" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P57" s="62"/>
+      <c r="Q57" s="62"/>
+      <c r="R57" s="62"/>
+      <c r="S57" s="62"/>
+      <c r="T57" s="62"/>
+      <c r="U57" s="63"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A58" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B58" s="17">
+        <v>3814</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D58" s="61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E58" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F58" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G58" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H58" s="62">
+        <f>$Q$18</f>
+        <v>1</v>
+      </c>
+      <c r="I58" s="62">
+        <f>$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J58" s="62">
+        <f>$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K58" s="62">
+        <f>$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L58" s="62">
+        <f>$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M58" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N58" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O58" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P58" s="62"/>
+      <c r="Q58" s="62"/>
+      <c r="R58" s="62"/>
+      <c r="S58" s="62"/>
+      <c r="T58" s="62"/>
+      <c r="U58" s="63"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A59" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B59" s="17">
+        <v>3809</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D59" s="61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E59" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F59" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G59" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H59" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I59" s="62">
+        <f t="shared" ref="I59:I62" si="17">$K$18</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J59" s="62">
+        <f t="shared" ref="J59:J62" si="18">$I$18</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K59" s="62">
+        <f t="shared" ref="K59:K62" si="19">$N$18</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L59" s="62">
+        <f t="shared" ref="L59:L62" si="20">$O$18</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M59" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N59" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O59" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P59" s="62"/>
+      <c r="Q59" s="62"/>
+      <c r="R59" s="62"/>
+      <c r="S59" s="62"/>
+      <c r="T59" s="62"/>
+      <c r="U59" s="63"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A60" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B60" s="17">
+        <v>3810</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D60" s="61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E60" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F60" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G60" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H60" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I60" s="62">
+        <f t="shared" si="17"/>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J60" s="62">
+        <f t="shared" si="18"/>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K60" s="62">
+        <f t="shared" si="19"/>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L60" s="62">
+        <f t="shared" si="20"/>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M60" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N60" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O60" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P60" s="62"/>
+      <c r="Q60" s="62"/>
+      <c r="R60" s="62"/>
+      <c r="S60" s="62"/>
+      <c r="T60" s="62"/>
+      <c r="U60" s="63"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A61" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B61" s="17">
+        <v>3805</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D61" s="61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E61" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F61" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G61" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H61" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I61" s="62">
+        <f t="shared" si="17"/>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J61" s="62">
+        <f t="shared" si="18"/>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K61" s="62">
+        <f t="shared" si="19"/>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L61" s="62">
+        <f t="shared" si="20"/>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M61" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N61" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O61" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P61" s="62"/>
+      <c r="Q61" s="62"/>
+      <c r="R61" s="62"/>
+      <c r="S61" s="62"/>
+      <c r="T61" s="62"/>
+      <c r="U61" s="63"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A62" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B62" s="17">
+        <v>3806</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D62" s="61">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="E62" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F62" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="G62" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="H62" s="62">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="I62" s="62">
+        <f t="shared" si="17"/>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="J62" s="62">
+        <f t="shared" si="18"/>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="K62" s="62">
+        <f t="shared" si="19"/>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="L62" s="62">
+        <f t="shared" si="20"/>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="M62" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N62" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O62" s="62">
+        <f t="shared" si="16"/>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="P62" s="62"/>
+      <c r="Q62" s="62"/>
+      <c r="R62" s="62"/>
+      <c r="S62" s="62"/>
+      <c r="T62" s="62"/>
+      <c r="U62" s="63"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A63" s="46" t="s">
+        <v>468</v>
+      </c>
+      <c r="B63" s="17">
+        <v>3704</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D63" s="61">
+        <f>$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E63" s="62">
+        <f t="shared" ref="E63:H63" si="21">$Q$13</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F63" s="62">
+        <f t="shared" si="21"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G63" s="62">
+        <f t="shared" si="21"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H63" s="62">
+        <f t="shared" si="21"/>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="I63" s="62">
+        <f t="shared" ref="I63" si="22">$K$13</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="J63" s="62">
+        <f t="shared" ref="J63" si="23">$I$13</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="K63" s="62">
+        <f t="shared" ref="K63" si="24">$N$13</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="L63" s="62">
+        <f t="shared" ref="L63" si="25">$O$13</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="M63" s="62">
+        <f t="shared" ref="M63:O63" si="26">$P$13</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N63" s="62">
+        <f t="shared" si="26"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O63" s="62">
+        <f t="shared" si="26"/>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="P63" s="62"/>
+      <c r="Q63" s="62"/>
+      <c r="R63" s="62"/>
+      <c r="S63" s="62"/>
+      <c r="T63" s="62"/>
+      <c r="U63" s="63"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A64" s="39" t="s">
+        <v>469</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>403</v>
+      </c>
+      <c r="C64" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="D64" s="64"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
+      <c r="I64" s="65">
+        <f>$K$10</f>
+        <v>0.8</v>
+      </c>
+      <c r="J64" s="65">
+        <f>$I$10</f>
+        <v>0.8</v>
+      </c>
+      <c r="K64" s="65">
+        <f>$N$10</f>
+        <v>0.8</v>
+      </c>
+      <c r="L64" s="65">
+        <f>$O$10</f>
+        <v>0.8</v>
+      </c>
+      <c r="M64" s="65">
+        <f>$P$10</f>
+        <v>0.7</v>
+      </c>
+      <c r="N64" s="65">
+        <f>$P$10</f>
+        <v>0.7</v>
+      </c>
+      <c r="O64" s="65">
+        <f>$P$10</f>
+        <v>0.7</v>
+      </c>
+      <c r="P64" s="65"/>
+      <c r="Q64" s="65">
+        <f>$D$9</f>
+        <v>0.85</v>
+      </c>
+      <c r="R64" s="65"/>
+      <c r="S64" s="65"/>
+      <c r="T64" s="65"/>
+      <c r="U64" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D34:H34"/>
+    <mergeCell ref="M34:O34"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B31:C32 B8 B10:B11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88C4CE59-00F4-48F3-B80B-EEE2C38EEE57}">
+  <dimension ref="A1:T30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A1" t="str">
+        <f>exio_usa!B35</f>
+        <v>USA</v>
+      </c>
+      <c r="B1">
+        <f>exio_usa!C35</f>
+        <v>0</v>
+      </c>
+      <c r="C1" t="str">
+        <f>exio_usa!D35</f>
+        <v>Residential</v>
+      </c>
+      <c r="D1" t="str">
+        <f>exio_usa!E35</f>
+        <v>Non-Residential</v>
+      </c>
+      <c r="E1" t="str">
+        <f>exio_usa!F35</f>
+        <v>Other buildungs</v>
+      </c>
+      <c r="F1" t="str">
+        <f>exio_usa!G35</f>
+        <v>Infrastructure</v>
+      </c>
+      <c r="G1" t="str">
+        <f>exio_usa!H35</f>
+        <v>Other construction</v>
+      </c>
+      <c r="H1" t="str">
+        <f>exio_usa!I35</f>
+        <v>Electronic machinery</v>
+      </c>
+      <c r="I1" t="str">
+        <f>exio_usa!J35</f>
+        <v>Other machinery</v>
+      </c>
+      <c r="J1" t="str">
+        <f>exio_usa!K35</f>
+        <v>Motor vehicles</v>
+      </c>
+      <c r="K1" t="str">
+        <f>exio_usa!L35</f>
+        <v>Other transport equipment</v>
+      </c>
+      <c r="L1" t="str">
+        <f>exio_usa!M35</f>
+        <v>Household appliances</v>
+      </c>
+      <c r="M1" t="str">
+        <f>exio_usa!N35</f>
+        <v>Other consumer durables</v>
+      </c>
+      <c r="N1" t="str">
+        <f>exio_usa!O35</f>
+        <v>Furniture</v>
+      </c>
+      <c r="O1" t="str">
+        <f>exio_usa!P35</f>
+        <v>Extraction</v>
+      </c>
+      <c r="P1" t="str">
+        <f>exio_usa!Q35</f>
+        <v>Textiles</v>
+      </c>
+      <c r="Q1" t="str">
+        <f>exio_usa!R35</f>
+        <v>Packaging</v>
+      </c>
+      <c r="R1" t="str">
+        <f>exio_usa!S35</f>
+        <v>Food products</v>
+      </c>
+      <c r="S1" t="str">
+        <f>exio_usa!T35</f>
+        <v>Products nec</v>
+      </c>
+      <c r="T1" t="str">
+        <f>exio_usa!U35</f>
+        <v>Services</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <f>exio_usa!B36</f>
+        <v>2001</v>
+      </c>
+      <c r="B2" s="67" t="str">
+        <f>exio_usa!C36</f>
+        <v>Logging camps, &amp; logging contractors</v>
+      </c>
+      <c r="C2" s="67">
+        <f>exio_usa!D36</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="67">
+        <f>exio_usa!E36</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="67">
+        <f>exio_usa!F36</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="67">
+        <f>exio_usa!G36</f>
+        <v>0</v>
+      </c>
+      <c r="G2" s="67">
+        <f>exio_usa!H36</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="67">
+        <f>exio_usa!I36</f>
+        <v>0</v>
+      </c>
+      <c r="I2" s="67">
+        <f>exio_usa!J36</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="67">
+        <f>exio_usa!K36</f>
+        <v>0</v>
+      </c>
+      <c r="K2" s="67">
+        <f>exio_usa!L36</f>
+        <v>0</v>
+      </c>
+      <c r="L2" s="67">
+        <f>exio_usa!M36</f>
+        <v>0.7</v>
+      </c>
+      <c r="M2" s="67">
+        <f>exio_usa!N36</f>
+        <v>0.7</v>
+      </c>
+      <c r="N2" s="67">
+        <f>exio_usa!O36</f>
+        <v>0.7</v>
+      </c>
+      <c r="O2" s="67">
+        <f>exio_usa!P36</f>
+        <v>0</v>
+      </c>
+      <c r="P2" s="67">
+        <f>exio_usa!Q36</f>
+        <v>0</v>
+      </c>
+      <c r="Q2" s="67">
+        <f>exio_usa!R36</f>
+        <v>0</v>
+      </c>
+      <c r="R2" s="67">
+        <f>exio_usa!S36</f>
+        <v>0</v>
+      </c>
+      <c r="S2" s="67">
+        <f>exio_usa!T36</f>
+        <v>0</v>
+      </c>
+      <c r="T2" s="67">
+        <f>exio_usa!U36</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>exio_usa!B37</f>
+        <v>2002+2006</v>
+      </c>
+      <c r="B3" s="67" t="str">
+        <f>exio_usa!C37</f>
+        <v>Sawmills &amp; planning mills, general+Veneer &amp; plywood</v>
+      </c>
+      <c r="C3" s="67">
+        <f>exio_usa!D37</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="67">
+        <f>exio_usa!E37</f>
+        <v>0</v>
+      </c>
+      <c r="E3" s="67">
+        <f>exio_usa!F37</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="67">
+        <f>exio_usa!G37</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="67">
+        <f>exio_usa!H37</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="67">
+        <f>exio_usa!I37</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="67">
+        <f>exio_usa!J37</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="67">
+        <f>exio_usa!K37</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="67">
+        <f>exio_usa!L37</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="67">
+        <f>exio_usa!M37</f>
+        <v>0.7</v>
+      </c>
+      <c r="M3" s="67">
+        <f>exio_usa!N37</f>
+        <v>0.7</v>
+      </c>
+      <c r="N3" s="67">
+        <f>exio_usa!O37</f>
+        <v>0.7</v>
+      </c>
+      <c r="O3" s="67">
+        <f>exio_usa!P37</f>
+        <v>0</v>
+      </c>
+      <c r="P3" s="67">
+        <f>exio_usa!Q37</f>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="67">
+        <f>exio_usa!R37</f>
+        <v>0</v>
+      </c>
+      <c r="R3" s="67">
+        <f>exio_usa!S37</f>
+        <v>0</v>
+      </c>
+      <c r="S3" s="67">
+        <f>exio_usa!T37</f>
+        <v>0</v>
+      </c>
+      <c r="T3" s="67">
+        <f>exio_usa!U37</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f>exio_usa!B38</f>
+        <v>2003</v>
+      </c>
+      <c r="B4" s="67" t="str">
+        <f>exio_usa!C38</f>
+        <v>Hardwood dimension &amp; flooring</v>
+      </c>
+      <c r="C4" s="67">
+        <f>exio_usa!D38</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="67">
+        <f>exio_usa!E38</f>
+        <v>0</v>
+      </c>
+      <c r="E4" s="67">
+        <f>exio_usa!F38</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="67">
+        <f>exio_usa!G38</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="67">
+        <f>exio_usa!H38</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="67">
+        <f>exio_usa!I38</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="67">
+        <f>exio_usa!J38</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="67">
+        <f>exio_usa!K38</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="67">
+        <f>exio_usa!L38</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="67">
+        <f>exio_usa!M38</f>
+        <v>0.7</v>
+      </c>
+      <c r="M4" s="67">
+        <f>exio_usa!N38</f>
+        <v>0.7</v>
+      </c>
+      <c r="N4" s="67">
+        <f>exio_usa!O38</f>
+        <v>0.7</v>
+      </c>
+      <c r="O4" s="67">
+        <f>exio_usa!P38</f>
+        <v>0</v>
+      </c>
+      <c r="P4" s="67">
+        <f>exio_usa!Q38</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="67">
+        <f>exio_usa!R38</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="67">
+        <f>exio_usa!S38</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="67">
+        <f>exio_usa!T38</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="67">
+        <f>exio_usa!U38</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f>exio_usa!B39</f>
+        <v>2004</v>
+      </c>
+      <c r="B5" s="67" t="str">
+        <f>exio_usa!C39</f>
+        <v>Special product sawmills, nec.</v>
+      </c>
+      <c r="C5" s="67">
+        <f>exio_usa!D39</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="67">
+        <f>exio_usa!E39</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="67">
+        <f>exio_usa!F39</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="67">
+        <f>exio_usa!G39</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="67">
+        <f>exio_usa!H39</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="67">
+        <f>exio_usa!I39</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="67">
+        <f>exio_usa!J39</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="67">
+        <f>exio_usa!K39</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="67">
+        <f>exio_usa!L39</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="67">
+        <f>exio_usa!M39</f>
+        <v>0.7</v>
+      </c>
+      <c r="M5" s="67">
+        <f>exio_usa!N39</f>
+        <v>0.7</v>
+      </c>
+      <c r="N5" s="67">
+        <f>exio_usa!O39</f>
+        <v>0.7</v>
+      </c>
+      <c r="O5" s="67">
+        <f>exio_usa!P39</f>
+        <v>0</v>
+      </c>
+      <c r="P5" s="67">
+        <f>exio_usa!Q39</f>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="67">
+        <f>exio_usa!R39</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="67">
+        <f>exio_usa!S39</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="67">
+        <f>exio_usa!T39</f>
+        <v>0</v>
+      </c>
+      <c r="T5" s="67">
+        <f>exio_usa!U39</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f>exio_usa!B40</f>
+        <v>2005</v>
+      </c>
+      <c r="B6" s="67" t="str">
+        <f>exio_usa!C40</f>
+        <v>Millwork</v>
+      </c>
+      <c r="C6" s="67">
+        <f>exio_usa!D40</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="67">
+        <f>exio_usa!E40</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="67">
+        <f>exio_usa!F40</f>
+        <v>0</v>
+      </c>
+      <c r="F6" s="67">
+        <f>exio_usa!G40</f>
+        <v>0</v>
+      </c>
+      <c r="G6" s="67">
+        <f>exio_usa!H40</f>
+        <v>0</v>
+      </c>
+      <c r="H6" s="67">
+        <f>exio_usa!I40</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="67">
+        <f>exio_usa!J40</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="67">
+        <f>exio_usa!K40</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="67">
+        <f>exio_usa!L40</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="67">
+        <f>exio_usa!M40</f>
+        <v>0.7</v>
+      </c>
+      <c r="M6" s="67">
+        <f>exio_usa!N40</f>
+        <v>0.7</v>
+      </c>
+      <c r="N6" s="67">
+        <f>exio_usa!O40</f>
+        <v>0.7</v>
+      </c>
+      <c r="O6" s="67">
+        <f>exio_usa!P40</f>
+        <v>0</v>
+      </c>
+      <c r="P6" s="67">
+        <f>exio_usa!Q40</f>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="67">
+        <f>exio_usa!R40</f>
+        <v>0</v>
+      </c>
+      <c r="R6" s="67">
+        <f>exio_usa!S40</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="67">
+        <f>exio_usa!T40</f>
+        <v>0</v>
+      </c>
+      <c r="T6" s="67">
+        <f>exio_usa!U40</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>exio_usa!B41</f>
+        <v>2007</v>
+      </c>
+      <c r="B7" s="67" t="str">
+        <f>exio_usa!C41</f>
+        <v>Prefabricated wood structures</v>
+      </c>
+      <c r="C7" s="67">
+        <f>exio_usa!D41</f>
+        <v>0</v>
+      </c>
+      <c r="D7" s="67">
+        <f>exio_usa!E41</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="67">
+        <f>exio_usa!F41</f>
+        <v>0</v>
+      </c>
+      <c r="F7" s="67">
+        <f>exio_usa!G41</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="67">
+        <f>exio_usa!H41</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="67">
+        <f>exio_usa!I41</f>
+        <v>0</v>
+      </c>
+      <c r="I7" s="67">
+        <f>exio_usa!J41</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="67">
+        <f>exio_usa!K41</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="67">
+        <f>exio_usa!L41</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="67">
+        <f>exio_usa!M41</f>
+        <v>0.7</v>
+      </c>
+      <c r="M7" s="67">
+        <f>exio_usa!N41</f>
+        <v>0.7</v>
+      </c>
+      <c r="N7" s="67">
+        <f>exio_usa!O41</f>
+        <v>0.7</v>
+      </c>
+      <c r="O7" s="67">
+        <f>exio_usa!P41</f>
+        <v>0</v>
+      </c>
+      <c r="P7" s="67">
+        <f>exio_usa!Q41</f>
+        <v>0</v>
+      </c>
+      <c r="Q7" s="67">
+        <f>exio_usa!R41</f>
+        <v>0</v>
+      </c>
+      <c r="R7" s="67">
+        <f>exio_usa!S41</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="67">
+        <f>exio_usa!T41</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="67">
+        <f>exio_usa!U41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f>exio_usa!B42</f>
+        <v>2008</v>
+      </c>
+      <c r="B8" s="67" t="str">
+        <f>exio_usa!C42</f>
+        <v>Wood preserving</v>
+      </c>
+      <c r="C8" s="67">
+        <f>exio_usa!D42</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="67">
+        <f>exio_usa!E42</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="67">
+        <f>exio_usa!F42</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="67">
+        <f>exio_usa!G42</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="67">
+        <f>exio_usa!H42</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="67">
+        <f>exio_usa!I42</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="67">
+        <f>exio_usa!J42</f>
+        <v>0</v>
+      </c>
+      <c r="J8" s="67">
+        <f>exio_usa!K42</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="67">
+        <f>exio_usa!L42</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="67">
+        <f>exio_usa!M42</f>
+        <v>0.7</v>
+      </c>
+      <c r="M8" s="67">
+        <f>exio_usa!N42</f>
+        <v>0.7</v>
+      </c>
+      <c r="N8" s="67">
+        <f>exio_usa!O42</f>
+        <v>0.7</v>
+      </c>
+      <c r="O8" s="67">
+        <f>exio_usa!P42</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="67">
+        <f>exio_usa!Q42</f>
+        <v>0</v>
+      </c>
+      <c r="Q8" s="67">
+        <f>exio_usa!R42</f>
+        <v>0</v>
+      </c>
+      <c r="R8" s="67">
+        <f>exio_usa!S42</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="67">
+        <f>exio_usa!T42</f>
+        <v>0</v>
+      </c>
+      <c r="T8" s="67">
+        <f>exio_usa!U42</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f>exio_usa!B43</f>
+        <v>2009</v>
+      </c>
+      <c r="B9" s="67" t="str">
+        <f>exio_usa!C43</f>
+        <v>Wood products, nec.</v>
+      </c>
+      <c r="C9" s="67">
+        <f>exio_usa!D43</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="67">
+        <f>exio_usa!E43</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="67">
+        <f>exio_usa!F43</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="67">
+        <f>exio_usa!G43</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="67">
+        <f>exio_usa!H43</f>
+        <v>0</v>
+      </c>
+      <c r="H9" s="67">
+        <f>exio_usa!I43</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="67">
+        <f>exio_usa!J43</f>
+        <v>0</v>
+      </c>
+      <c r="J9" s="67">
+        <f>exio_usa!K43</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="67">
+        <f>exio_usa!L43</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="67">
+        <f>exio_usa!M43</f>
+        <v>0.7</v>
+      </c>
+      <c r="M9" s="67">
+        <f>exio_usa!N43</f>
+        <v>0.7</v>
+      </c>
+      <c r="N9" s="67">
+        <f>exio_usa!O43</f>
+        <v>0.7</v>
+      </c>
+      <c r="O9" s="67">
+        <f>exio_usa!P43</f>
+        <v>0</v>
+      </c>
+      <c r="P9" s="67">
+        <f>exio_usa!Q43</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="67">
+        <f>exio_usa!R43</f>
+        <v>0</v>
+      </c>
+      <c r="R9" s="67">
+        <f>exio_usa!S43</f>
+        <v>0</v>
+      </c>
+      <c r="S9" s="67">
+        <f>exio_usa!T43</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="67">
+        <f>exio_usa!U43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f>exio_usa!B44</f>
+        <v>3501</v>
+      </c>
+      <c r="B10" s="67" t="str">
+        <f>exio_usa!C44</f>
+        <v>Glass &amp; glass products except containers</v>
+      </c>
+      <c r="C10" s="67">
+        <f>exio_usa!D44</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="67">
+        <f>exio_usa!E44</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="67">
+        <f>exio_usa!F44</f>
+        <v>0</v>
+      </c>
+      <c r="F10" s="67">
+        <f>exio_usa!G44</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="67">
+        <f>exio_usa!H44</f>
+        <v>0</v>
+      </c>
+      <c r="H10" s="67">
+        <f>exio_usa!I44</f>
+        <v>0.8</v>
+      </c>
+      <c r="I10" s="67">
+        <f>exio_usa!J44</f>
+        <v>0.8</v>
+      </c>
+      <c r="J10" s="67">
+        <f>exio_usa!K44</f>
+        <v>0.8</v>
+      </c>
+      <c r="K10" s="67">
+        <f>exio_usa!L44</f>
+        <v>0.8</v>
+      </c>
+      <c r="L10" s="67">
+        <f>exio_usa!M44</f>
+        <v>0.7</v>
+      </c>
+      <c r="M10" s="67">
+        <f>exio_usa!N44</f>
+        <v>0.7</v>
+      </c>
+      <c r="N10" s="67">
+        <f>exio_usa!O44</f>
+        <v>0.7</v>
+      </c>
+      <c r="O10" s="67">
+        <f>exio_usa!P44</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="67">
+        <f>exio_usa!Q44</f>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="67">
+        <f>exio_usa!R44</f>
+        <v>0</v>
+      </c>
+      <c r="R10" s="67">
+        <f>exio_usa!S44</f>
+        <v>0</v>
+      </c>
+      <c r="S10" s="67">
+        <f>exio_usa!T44</f>
+        <v>0</v>
+      </c>
+      <c r="T10" s="67">
+        <f>exio_usa!U44</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f>exio_usa!B45</f>
+        <v>3502</v>
+      </c>
+      <c r="B11" s="67" t="str">
+        <f>exio_usa!C45</f>
+        <v>Glass containers</v>
+      </c>
+      <c r="C11" s="67">
+        <f>exio_usa!D45</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="67">
+        <f>exio_usa!E45</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="67">
+        <f>exio_usa!F45</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="67">
+        <f>exio_usa!G45</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="67">
+        <f>exio_usa!H45</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="67">
+        <f>exio_usa!I45</f>
+        <v>0.8</v>
+      </c>
+      <c r="I11" s="67">
+        <f>exio_usa!J45</f>
+        <v>0.8</v>
+      </c>
+      <c r="J11" s="67">
+        <f>exio_usa!K45</f>
+        <v>0.8</v>
+      </c>
+      <c r="K11" s="67">
+        <f>exio_usa!L45</f>
+        <v>0.8</v>
+      </c>
+      <c r="L11" s="67">
+        <f>exio_usa!M45</f>
+        <v>0.7</v>
+      </c>
+      <c r="M11" s="67">
+        <f>exio_usa!N45</f>
+        <v>0.7</v>
+      </c>
+      <c r="N11" s="67">
+        <f>exio_usa!O45</f>
+        <v>0.7</v>
+      </c>
+      <c r="O11" s="67">
+        <f>exio_usa!P45</f>
+        <v>0</v>
+      </c>
+      <c r="P11" s="67">
+        <f>exio_usa!Q45</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="67">
+        <f>exio_usa!R45</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="67">
+        <f>exio_usa!S45</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="67">
+        <f>exio_usa!T45</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="67">
+        <f>exio_usa!U45</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f>exio_usa!B46</f>
+        <v>3701</v>
+      </c>
+      <c r="B12" s="67" t="str">
+        <f>exio_usa!C46</f>
+        <v>Blast furnace &amp; basic steel products</v>
+      </c>
+      <c r="C12" s="67">
+        <f>exio_usa!D46</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D12" s="67">
+        <f>exio_usa!E46</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E12" s="67">
+        <f>exio_usa!F46</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F12" s="67">
+        <f>exio_usa!G46</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G12" s="67">
+        <f>exio_usa!H46</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H12" s="67">
+        <f>exio_usa!I46</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I12" s="67">
+        <f>exio_usa!J46</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J12" s="67">
+        <f>exio_usa!K46</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K12" s="67">
+        <f>exio_usa!L46</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L12" s="67">
+        <f>exio_usa!M46</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M12" s="67">
+        <f>exio_usa!N46</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N12" s="67">
+        <f>exio_usa!O46</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O12" s="67">
+        <f>exio_usa!P46</f>
+        <v>0</v>
+      </c>
+      <c r="P12" s="67">
+        <f>exio_usa!Q46</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="67">
+        <f>exio_usa!R46</f>
+        <v>0</v>
+      </c>
+      <c r="R12" s="67">
+        <f>exio_usa!S46</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="67">
+        <f>exio_usa!T46</f>
+        <v>0</v>
+      </c>
+      <c r="T12" s="67">
+        <f>exio_usa!U46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f>exio_usa!B47</f>
+        <v>3702</v>
+      </c>
+      <c r="B13" s="67" t="str">
+        <f>exio_usa!C47</f>
+        <v>Iron &amp; steel foundries</v>
+      </c>
+      <c r="C13" s="67">
+        <f>exio_usa!D47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D13" s="67">
+        <f>exio_usa!E47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E13" s="67">
+        <f>exio_usa!F47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F13" s="67">
+        <f>exio_usa!G47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G13" s="67">
+        <f>exio_usa!H47</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H13" s="67">
+        <f>exio_usa!I47</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I13" s="67">
+        <f>exio_usa!J47</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J13" s="67">
+        <f>exio_usa!K47</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K13" s="67">
+        <f>exio_usa!L47</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L13" s="67">
+        <f>exio_usa!M47</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M13" s="67">
+        <f>exio_usa!N47</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N13" s="67">
+        <f>exio_usa!O47</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O13" s="67">
+        <f>exio_usa!P47</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="67">
+        <f>exio_usa!Q47</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="67">
+        <f>exio_usa!R47</f>
+        <v>0</v>
+      </c>
+      <c r="R13" s="67">
+        <f>exio_usa!S47</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="67">
+        <f>exio_usa!T47</f>
+        <v>0</v>
+      </c>
+      <c r="T13" s="67">
+        <f>exio_usa!U47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f>exio_usa!B48</f>
+        <v>3703</v>
+      </c>
+      <c r="B14" s="67" t="str">
+        <f>exio_usa!C48</f>
+        <v>Iron &amp; steel forgings</v>
+      </c>
+      <c r="C14" s="67">
+        <f>exio_usa!D48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D14" s="67">
+        <f>exio_usa!E48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E14" s="67">
+        <f>exio_usa!F48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F14" s="67">
+        <f>exio_usa!G48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G14" s="67">
+        <f>exio_usa!H48</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H14" s="67">
+        <f>exio_usa!I48</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I14" s="67">
+        <f>exio_usa!J48</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J14" s="67">
+        <f>exio_usa!K48</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K14" s="67">
+        <f>exio_usa!L48</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L14" s="67">
+        <f>exio_usa!M48</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M14" s="67">
+        <f>exio_usa!N48</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N14" s="67">
+        <f>exio_usa!O48</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O14" s="67">
+        <f>exio_usa!P48</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="67">
+        <f>exio_usa!Q48</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="67">
+        <f>exio_usa!R48</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="67">
+        <f>exio_usa!S48</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="67">
+        <f>exio_usa!T48</f>
+        <v>0</v>
+      </c>
+      <c r="T14" s="67">
+        <f>exio_usa!U48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f>exio_usa!B49</f>
+        <v>3804</v>
+      </c>
+      <c r="B15" s="67" t="str">
+        <f>exio_usa!C49</f>
+        <v>Primary aluminum</v>
+      </c>
+      <c r="C15" s="67">
+        <f>exio_usa!D49</f>
+        <v>1</v>
+      </c>
+      <c r="D15" s="67">
+        <f>exio_usa!E49</f>
+        <v>1</v>
+      </c>
+      <c r="E15" s="67">
+        <f>exio_usa!F49</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="67">
+        <f>exio_usa!G49</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="67">
+        <f>exio_usa!H49</f>
+        <v>1</v>
+      </c>
+      <c r="H15" s="67">
+        <f>exio_usa!I49</f>
+        <v>1</v>
+      </c>
+      <c r="I15" s="67">
+        <f>exio_usa!J49</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J15" s="67">
+        <f>exio_usa!K49</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="67">
+        <f>exio_usa!L49</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="L15" s="67">
+        <f>exio_usa!M49</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="M15" s="67">
+        <f>exio_usa!N49</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N15" s="67">
+        <f>exio_usa!O49</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O15" s="67">
+        <f>exio_usa!P49</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="67">
+        <f>exio_usa!Q49</f>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="67">
+        <f>exio_usa!R49</f>
+        <v>0</v>
+      </c>
+      <c r="R15" s="67">
+        <f>exio_usa!S49</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="67">
+        <f>exio_usa!T49</f>
+        <v>0</v>
+      </c>
+      <c r="T15" s="67">
+        <f>exio_usa!U49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>exio_usa!B50</f>
+        <v>3808</v>
+      </c>
+      <c r="B16" s="67" t="str">
+        <f>exio_usa!C50</f>
+        <v>Aluminum rolling &amp; drawing</v>
+      </c>
+      <c r="C16" s="67">
+        <f>exio_usa!D50</f>
+        <v>1</v>
+      </c>
+      <c r="D16" s="67">
+        <f>exio_usa!E50</f>
+        <v>1</v>
+      </c>
+      <c r="E16" s="67">
+        <f>exio_usa!F50</f>
+        <v>1</v>
+      </c>
+      <c r="F16" s="67">
+        <f>exio_usa!G50</f>
+        <v>1</v>
+      </c>
+      <c r="G16" s="67">
+        <f>exio_usa!H50</f>
+        <v>1</v>
+      </c>
+      <c r="H16" s="67">
+        <f>exio_usa!I50</f>
+        <v>1</v>
+      </c>
+      <c r="I16" s="67">
+        <f>exio_usa!J50</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J16" s="67">
+        <f>exio_usa!K50</f>
+        <v>1</v>
+      </c>
+      <c r="K16" s="67">
+        <f>exio_usa!L50</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="L16" s="67">
+        <f>exio_usa!M50</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="M16" s="67">
+        <f>exio_usa!N50</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N16" s="67">
+        <f>exio_usa!O50</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O16" s="67">
+        <f>exio_usa!P50</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="67">
+        <f>exio_usa!Q50</f>
+        <v>0</v>
+      </c>
+      <c r="Q16" s="67">
+        <f>exio_usa!R50</f>
+        <v>0</v>
+      </c>
+      <c r="R16" s="67">
+        <f>exio_usa!S50</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="67">
+        <f>exio_usa!T50</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="67">
+        <f>exio_usa!U50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>exio_usa!B51</f>
+        <v>3811</v>
+      </c>
+      <c r="B17" s="67" t="str">
+        <f>exio_usa!C51</f>
+        <v>Aluminum castings</v>
+      </c>
+      <c r="C17" s="67">
+        <f>exio_usa!D51</f>
+        <v>1</v>
+      </c>
+      <c r="D17" s="67">
+        <f>exio_usa!E51</f>
+        <v>1</v>
+      </c>
+      <c r="E17" s="67">
+        <f>exio_usa!F51</f>
+        <v>1</v>
+      </c>
+      <c r="F17" s="67">
+        <f>exio_usa!G51</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="67">
+        <f>exio_usa!H51</f>
+        <v>1</v>
+      </c>
+      <c r="H17" s="67">
+        <f>exio_usa!I51</f>
+        <v>1</v>
+      </c>
+      <c r="I17" s="67">
+        <f>exio_usa!J51</f>
+        <v>0.99877498740551296</v>
+      </c>
+      <c r="J17" s="67">
+        <f>exio_usa!K51</f>
+        <v>1</v>
+      </c>
+      <c r="K17" s="67">
+        <f>exio_usa!L51</f>
+        <v>0.999156412809172</v>
+      </c>
+      <c r="L17" s="67">
+        <f>exio_usa!M51</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="M17" s="67">
+        <f>exio_usa!N51</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="N17" s="67">
+        <f>exio_usa!O51</f>
+        <v>0.98009206796423698</v>
+      </c>
+      <c r="O17" s="67">
+        <f>exio_usa!P51</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="67">
+        <f>exio_usa!Q51</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="67">
+        <f>exio_usa!R51</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="67">
+        <f>exio_usa!S51</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="67">
+        <f>exio_usa!T51</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="67">
+        <f>exio_usa!U51</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>exio_usa!B52</f>
+        <v>3801</v>
+      </c>
+      <c r="B18" s="67" t="str">
+        <f>exio_usa!C52</f>
+        <v>Primary copper</v>
+      </c>
+      <c r="C18" s="67">
+        <f>exio_usa!D52</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="67">
+        <f>exio_usa!E52</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="67">
+        <f>exio_usa!F52</f>
+        <v>1</v>
+      </c>
+      <c r="F18" s="67">
+        <f>exio_usa!G52</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="67">
+        <f>exio_usa!H52</f>
+        <v>1</v>
+      </c>
+      <c r="H18" s="67">
+        <f>exio_usa!I52</f>
+        <v>1</v>
+      </c>
+      <c r="I18" s="67">
+        <f>exio_usa!J52</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J18" s="67">
+        <f>exio_usa!K52</f>
+        <v>1</v>
+      </c>
+      <c r="K18" s="67">
+        <f>exio_usa!L52</f>
+        <v>1</v>
+      </c>
+      <c r="L18" s="67">
+        <f>exio_usa!M52</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="M18" s="67">
+        <f>exio_usa!N52</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N18" s="67">
+        <f>exio_usa!O52</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O18" s="67">
+        <f>exio_usa!P52</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="67">
+        <f>exio_usa!Q52</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="67">
+        <f>exio_usa!R52</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="67">
+        <f>exio_usa!S52</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="67">
+        <f>exio_usa!T52</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="67">
+        <f>exio_usa!U52</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>exio_usa!B53</f>
+        <v>3807</v>
+      </c>
+      <c r="B19" s="67" t="str">
+        <f>exio_usa!C53</f>
+        <v>Copper rolling &amp; drawing</v>
+      </c>
+      <c r="C19" s="67">
+        <f>exio_usa!D53</f>
+        <v>1</v>
+      </c>
+      <c r="D19" s="67">
+        <f>exio_usa!E53</f>
+        <v>1</v>
+      </c>
+      <c r="E19" s="67">
+        <f>exio_usa!F53</f>
+        <v>1</v>
+      </c>
+      <c r="F19" s="67">
+        <f>exio_usa!G53</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="67">
+        <f>exio_usa!H53</f>
+        <v>1</v>
+      </c>
+      <c r="H19" s="67">
+        <f>exio_usa!I53</f>
+        <v>1</v>
+      </c>
+      <c r="I19" s="67">
+        <f>exio_usa!J53</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J19" s="67">
+        <f>exio_usa!K53</f>
+        <v>1</v>
+      </c>
+      <c r="K19" s="67">
+        <f>exio_usa!L53</f>
+        <v>1</v>
+      </c>
+      <c r="L19" s="67">
+        <f>exio_usa!M53</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="M19" s="67">
+        <f>exio_usa!N53</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N19" s="67">
+        <f>exio_usa!O53</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O19" s="67">
+        <f>exio_usa!P53</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="67">
+        <f>exio_usa!Q53</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="67">
+        <f>exio_usa!R53</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="67">
+        <f>exio_usa!S53</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="67">
+        <f>exio_usa!T53</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="67">
+        <f>exio_usa!U53</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>exio_usa!B54</f>
+        <v>3812</v>
+      </c>
+      <c r="B20" s="67" t="str">
+        <f>exio_usa!C54</f>
+        <v>Brass, bronze, &amp; copper castings</v>
+      </c>
+      <c r="C20" s="67">
+        <f>exio_usa!D54</f>
+        <v>1</v>
+      </c>
+      <c r="D20" s="67">
+        <f>exio_usa!E54</f>
+        <v>1</v>
+      </c>
+      <c r="E20" s="67">
+        <f>exio_usa!F54</f>
+        <v>1</v>
+      </c>
+      <c r="F20" s="67">
+        <f>exio_usa!G54</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="67">
+        <f>exio_usa!H54</f>
+        <v>1</v>
+      </c>
+      <c r="H20" s="67">
+        <f>exio_usa!I54</f>
+        <v>1</v>
+      </c>
+      <c r="I20" s="67">
+        <f>exio_usa!J54</f>
+        <v>0.99959212142745102</v>
+      </c>
+      <c r="J20" s="67">
+        <f>exio_usa!K54</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="67">
+        <f>exio_usa!L54</f>
+        <v>1</v>
+      </c>
+      <c r="L20" s="67">
+        <f>exio_usa!M54</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="M20" s="67">
+        <f>exio_usa!N54</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="N20" s="67">
+        <f>exio_usa!O54</f>
+        <v>0.99517688048449904</v>
+      </c>
+      <c r="O20" s="67">
+        <f>exio_usa!P54</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="67">
+        <f>exio_usa!Q54</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="67">
+        <f>exio_usa!R54</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="67">
+        <f>exio_usa!S54</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="67">
+        <f>exio_usa!T54</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="67">
+        <f>exio_usa!U54</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f>exio_usa!B55</f>
+        <v>3802</v>
+      </c>
+      <c r="B21" s="67" t="str">
+        <f>exio_usa!C55</f>
+        <v>Primary lead</v>
+      </c>
+      <c r="C21" s="67">
+        <f>exio_usa!D55</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="D21" s="67">
+        <f>exio_usa!E55</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E21" s="67">
+        <f>exio_usa!F55</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F21" s="67">
+        <f>exio_usa!G55</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G21" s="67">
+        <f>exio_usa!H55</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H21" s="67">
+        <f>exio_usa!I55</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="I21" s="67">
+        <f>exio_usa!J55</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J21" s="67">
+        <f>exio_usa!K55</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="K21" s="67">
+        <f>exio_usa!L55</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="L21" s="67">
+        <f>exio_usa!M55</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="M21" s="67">
+        <f>exio_usa!N55</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N21" s="67">
+        <f>exio_usa!O55</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O21" s="67">
+        <f>exio_usa!P55</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="67">
+        <f>exio_usa!Q55</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="67">
+        <f>exio_usa!R55</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="67">
+        <f>exio_usa!S55</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="67">
+        <f>exio_usa!T55</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="67">
+        <f>exio_usa!U55</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f>exio_usa!B56</f>
+        <v>3803</v>
+      </c>
+      <c r="B22" s="67" t="str">
+        <f>exio_usa!C56</f>
+        <v>Primary zinc</v>
+      </c>
+      <c r="C22" s="67">
+        <f>exio_usa!D56</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="D22" s="67">
+        <f>exio_usa!E56</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="E22" s="67">
+        <f>exio_usa!F56</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="F22" s="67">
+        <f>exio_usa!G56</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="G22" s="67">
+        <f>exio_usa!H56</f>
+        <v>0.95200977870694903</v>
+      </c>
+      <c r="H22" s="67">
+        <f>exio_usa!I56</f>
+        <v>0.91188541832382797</v>
+      </c>
+      <c r="I22" s="67">
+        <f>exio_usa!J56</f>
+        <v>0.90542002153861501</v>
+      </c>
+      <c r="J22" s="67">
+        <f>exio_usa!K56</f>
+        <v>0.81225200582322299</v>
+      </c>
+      <c r="K22" s="67">
+        <f>exio_usa!L56</f>
+        <v>0.90874200468859301</v>
+      </c>
+      <c r="L22" s="67">
+        <f>exio_usa!M56</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="M22" s="67">
+        <f>exio_usa!N56</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="N22" s="67">
+        <f>exio_usa!O56</f>
+        <v>0.98460249995958704</v>
+      </c>
+      <c r="O22" s="67">
+        <f>exio_usa!P56</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="67">
+        <f>exio_usa!Q56</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="67">
+        <f>exio_usa!R56</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="67">
+        <f>exio_usa!S56</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="67">
+        <f>exio_usa!T56</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="67">
+        <f>exio_usa!U56</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>exio_usa!B57</f>
+        <v>3813</v>
+      </c>
+      <c r="B23" s="67" t="str">
+        <f>exio_usa!C57</f>
+        <v>Nonferrous castings, nec.</v>
+      </c>
+      <c r="C23" s="67">
+        <f>exio_usa!D57</f>
+        <v>1</v>
+      </c>
+      <c r="D23" s="67">
+        <f>exio_usa!E57</f>
+        <v>1</v>
+      </c>
+      <c r="E23" s="67">
+        <f>exio_usa!F57</f>
+        <v>1</v>
+      </c>
+      <c r="F23" s="67">
+        <f>exio_usa!G57</f>
+        <v>1</v>
+      </c>
+      <c r="G23" s="67">
+        <f>exio_usa!H57</f>
+        <v>1</v>
+      </c>
+      <c r="H23" s="67">
+        <f>exio_usa!I57</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I23" s="67">
+        <f>exio_usa!J57</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J23" s="67">
+        <f>exio_usa!K57</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K23" s="67">
+        <f>exio_usa!L57</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L23" s="67">
+        <f>exio_usa!M57</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M23" s="67">
+        <f>exio_usa!N57</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N23" s="67">
+        <f>exio_usa!O57</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O23" s="67">
+        <f>exio_usa!P57</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="67">
+        <f>exio_usa!Q57</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="67">
+        <f>exio_usa!R57</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="67">
+        <f>exio_usa!S57</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="67">
+        <f>exio_usa!T57</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="67">
+        <f>exio_usa!U57</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>exio_usa!B58</f>
+        <v>3814</v>
+      </c>
+      <c r="B24" s="67" t="str">
+        <f>exio_usa!C58</f>
+        <v>Nonferrous forgings</v>
+      </c>
+      <c r="C24" s="67">
+        <f>exio_usa!D58</f>
+        <v>1</v>
+      </c>
+      <c r="D24" s="67">
+        <f>exio_usa!E58</f>
+        <v>1</v>
+      </c>
+      <c r="E24" s="67">
+        <f>exio_usa!F58</f>
+        <v>1</v>
+      </c>
+      <c r="F24" s="67">
+        <f>exio_usa!G58</f>
+        <v>1</v>
+      </c>
+      <c r="G24" s="67">
+        <f>exio_usa!H58</f>
+        <v>1</v>
+      </c>
+      <c r="H24" s="67">
+        <f>exio_usa!I58</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I24" s="67">
+        <f>exio_usa!J58</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J24" s="67">
+        <f>exio_usa!K58</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K24" s="67">
+        <f>exio_usa!L58</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L24" s="67">
+        <f>exio_usa!M58</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M24" s="67">
+        <f>exio_usa!N58</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N24" s="67">
+        <f>exio_usa!O58</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O24" s="67">
+        <f>exio_usa!P58</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="67">
+        <f>exio_usa!Q58</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="67">
+        <f>exio_usa!R58</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="67">
+        <f>exio_usa!S58</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="67">
+        <f>exio_usa!T58</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="67">
+        <f>exio_usa!U58</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>exio_usa!B59</f>
+        <v>3809</v>
+      </c>
+      <c r="B25" s="67" t="str">
+        <f>exio_usa!C59</f>
+        <v>Nonferrous rolling &amp; drawing, nec.</v>
+      </c>
+      <c r="C25" s="67">
+        <f>exio_usa!D59</f>
+        <v>1</v>
+      </c>
+      <c r="D25" s="67">
+        <f>exio_usa!E59</f>
+        <v>1</v>
+      </c>
+      <c r="E25" s="67">
+        <f>exio_usa!F59</f>
+        <v>1</v>
+      </c>
+      <c r="F25" s="67">
+        <f>exio_usa!G59</f>
+        <v>1</v>
+      </c>
+      <c r="G25" s="67">
+        <f>exio_usa!H59</f>
+        <v>1</v>
+      </c>
+      <c r="H25" s="67">
+        <f>exio_usa!I59</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I25" s="67">
+        <f>exio_usa!J59</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J25" s="67">
+        <f>exio_usa!K59</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K25" s="67">
+        <f>exio_usa!L59</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L25" s="67">
+        <f>exio_usa!M59</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M25" s="67">
+        <f>exio_usa!N59</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N25" s="67">
+        <f>exio_usa!O59</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O25" s="67">
+        <f>exio_usa!P59</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="67">
+        <f>exio_usa!Q59</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="67">
+        <f>exio_usa!R59</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="67">
+        <f>exio_usa!S59</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="67">
+        <f>exio_usa!T59</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="67">
+        <f>exio_usa!U59</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>exio_usa!B60</f>
+        <v>3810</v>
+      </c>
+      <c r="B26" s="67" t="str">
+        <f>exio_usa!C60</f>
+        <v>Nonferrous wire drawing &amp; insulting</v>
+      </c>
+      <c r="C26" s="67">
+        <f>exio_usa!D60</f>
+        <v>1</v>
+      </c>
+      <c r="D26" s="67">
+        <f>exio_usa!E60</f>
+        <v>1</v>
+      </c>
+      <c r="E26" s="67">
+        <f>exio_usa!F60</f>
+        <v>1</v>
+      </c>
+      <c r="F26" s="67">
+        <f>exio_usa!G60</f>
+        <v>1</v>
+      </c>
+      <c r="G26" s="67">
+        <f>exio_usa!H60</f>
+        <v>1</v>
+      </c>
+      <c r="H26" s="67">
+        <f>exio_usa!I60</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I26" s="67">
+        <f>exio_usa!J60</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J26" s="67">
+        <f>exio_usa!K60</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K26" s="67">
+        <f>exio_usa!L60</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L26" s="67">
+        <f>exio_usa!M60</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M26" s="67">
+        <f>exio_usa!N60</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N26" s="67">
+        <f>exio_usa!O60</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O26" s="67">
+        <f>exio_usa!P60</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="67">
+        <f>exio_usa!Q60</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="67">
+        <f>exio_usa!R60</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="67">
+        <f>exio_usa!S60</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="67">
+        <f>exio_usa!T60</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="67">
+        <f>exio_usa!U60</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>exio_usa!B61</f>
+        <v>3805</v>
+      </c>
+      <c r="B27" s="67" t="str">
+        <f>exio_usa!C61</f>
+        <v>Primary nonferrous metals, nec.</v>
+      </c>
+      <c r="C27" s="67">
+        <f>exio_usa!D61</f>
+        <v>1</v>
+      </c>
+      <c r="D27" s="67">
+        <f>exio_usa!E61</f>
+        <v>1</v>
+      </c>
+      <c r="E27" s="67">
+        <f>exio_usa!F61</f>
+        <v>1</v>
+      </c>
+      <c r="F27" s="67">
+        <f>exio_usa!G61</f>
+        <v>1</v>
+      </c>
+      <c r="G27" s="67">
+        <f>exio_usa!H61</f>
+        <v>1</v>
+      </c>
+      <c r="H27" s="67">
+        <f>exio_usa!I61</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I27" s="67">
+        <f>exio_usa!J61</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J27" s="67">
+        <f>exio_usa!K61</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K27" s="67">
+        <f>exio_usa!L61</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L27" s="67">
+        <f>exio_usa!M61</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M27" s="67">
+        <f>exio_usa!N61</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N27" s="67">
+        <f>exio_usa!O61</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O27" s="67">
+        <f>exio_usa!P61</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="67">
+        <f>exio_usa!Q61</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="67">
+        <f>exio_usa!R61</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="67">
+        <f>exio_usa!S61</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="67">
+        <f>exio_usa!T61</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="67">
+        <f>exio_usa!U61</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>exio_usa!B62</f>
+        <v>3806</v>
+      </c>
+      <c r="B28" s="67" t="str">
+        <f>exio_usa!C62</f>
+        <v>Secondary nonferrous metals</v>
+      </c>
+      <c r="C28" s="67">
+        <f>exio_usa!D62</f>
+        <v>1</v>
+      </c>
+      <c r="D28" s="67">
+        <f>exio_usa!E62</f>
+        <v>1</v>
+      </c>
+      <c r="E28" s="67">
+        <f>exio_usa!F62</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="67">
+        <f>exio_usa!G62</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="67">
+        <f>exio_usa!H62</f>
+        <v>1</v>
+      </c>
+      <c r="H28" s="67">
+        <f>exio_usa!I62</f>
+        <v>0.99949496003205796</v>
+      </c>
+      <c r="I28" s="67">
+        <f>exio_usa!J62</f>
+        <v>0.99996338425751496</v>
+      </c>
+      <c r="J28" s="67">
+        <f>exio_usa!K62</f>
+        <v>0.99974574415004602</v>
+      </c>
+      <c r="K28" s="67">
+        <f>exio_usa!L62</f>
+        <v>0.99996712399807097</v>
+      </c>
+      <c r="L28" s="67">
+        <f>exio_usa!M62</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="M28" s="67">
+        <f>exio_usa!N62</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="N28" s="67">
+        <f>exio_usa!O62</f>
+        <v>0.99992430312491298</v>
+      </c>
+      <c r="O28" s="67">
+        <f>exio_usa!P62</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="67">
+        <f>exio_usa!Q62</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="67">
+        <f>exio_usa!R62</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="67">
+        <f>exio_usa!S62</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="67">
+        <f>exio_usa!T62</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="67">
+        <f>exio_usa!U62</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>exio_usa!B63</f>
+        <v>3704</v>
+      </c>
+      <c r="B29" s="67" t="str">
+        <f>exio_usa!C63</f>
+        <v>Primary metal product</v>
+      </c>
+      <c r="C29" s="67">
+        <f>exio_usa!D63</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="D29" s="67">
+        <f>exio_usa!E63</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="E29" s="67">
+        <f>exio_usa!F63</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="F29" s="67">
+        <f>exio_usa!G63</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="G29" s="67">
+        <f>exio_usa!H63</f>
+        <v>0.94166040230902204</v>
+      </c>
+      <c r="H29" s="67">
+        <f>exio_usa!I63</f>
+        <v>0.87138156437019998</v>
+      </c>
+      <c r="I29" s="67">
+        <f>exio_usa!J63</f>
+        <v>0.86927271702207298</v>
+      </c>
+      <c r="J29" s="67">
+        <f>exio_usa!K63</f>
+        <v>0.81809329894973004</v>
+      </c>
+      <c r="K29" s="67">
+        <f>exio_usa!L63</f>
+        <v>0.89771421948548102</v>
+      </c>
+      <c r="L29" s="67">
+        <f>exio_usa!M63</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="M29" s="67">
+        <f>exio_usa!N63</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="N29" s="67">
+        <f>exio_usa!O63</f>
+        <v>0.95978881465296295</v>
+      </c>
+      <c r="O29" s="67">
+        <f>exio_usa!P63</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="67">
+        <f>exio_usa!Q63</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="67">
+        <f>exio_usa!R63</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="67">
+        <f>exio_usa!S63</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="67">
+        <f>exio_usa!T63</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="67">
+        <f>exio_usa!U63</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>exio_usa!B64</f>
+        <v>2801+2802</v>
+      </c>
+      <c r="B30" s="67" t="str">
+        <f>exio_usa!C64</f>
+        <v>Plastics materials &amp; resins+Synthetic rubber</v>
+      </c>
+      <c r="C30" s="67">
+        <f>exio_usa!D64</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="67">
+        <f>exio_usa!E64</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="67">
+        <f>exio_usa!F64</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="67">
+        <f>exio_usa!G64</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="67">
+        <f>exio_usa!H64</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="67">
+        <f>exio_usa!I64</f>
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="67">
+        <f>exio_usa!J64</f>
+        <v>0.8</v>
+      </c>
+      <c r="J30" s="67">
+        <f>exio_usa!K64</f>
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="67">
+        <f>exio_usa!L64</f>
+        <v>0.8</v>
+      </c>
+      <c r="L30" s="67">
+        <f>exio_usa!M64</f>
+        <v>0.7</v>
+      </c>
+      <c r="M30" s="67">
+        <f>exio_usa!N64</f>
+        <v>0.7</v>
+      </c>
+      <c r="N30" s="67">
+        <f>exio_usa!O64</f>
+        <v>0.7</v>
+      </c>
+      <c r="O30" s="67">
+        <f>exio_usa!P64</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="67">
+        <f>exio_usa!Q64</f>
+        <v>0.85</v>
+      </c>
+      <c r="Q30" s="67">
+        <f>exio_usa!R64</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="67">
+        <f>exio_usa!S64</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="67">
+        <f>exio_usa!T64</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="67">
+        <f>exio_usa!U64</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>